--- a/data/word_list_9.xlsx
+++ b/data/word_list_9.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K345"/>
+  <dimension ref="A1:G345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,52 +365,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>aoa_german_comb</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>word_freq</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>aoa_german_b_m</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>aoa_german_s_m</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>aoa_german_l_m</t>
+          <t>aoa_mor</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>aoa_german_comb</t>
+          <t>clt</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>clt</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
           <t>english</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>aoa_mor</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>aoa_rating_english</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>select</t>
         </is>
       </c>
     </row>
@@ -420,16 +400,13 @@
           <t>weißkohl</t>
         </is>
       </c>
-      <c r="B2">
+      <c r="C2">
+        <v>3.35</v>
+      </c>
+      <c r="D2">
         <v>0.87</v>
       </c>
-      <c r="D2">
-        <v>3.35</v>
-      </c>
-      <c r="F2">
-        <v>3.35</v>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>white cabbage</t>
         </is>
@@ -441,16 +418,13 @@
           <t>sonnenhut</t>
         </is>
       </c>
-      <c r="B3">
+      <c r="C3">
+        <v>3.35</v>
+      </c>
+      <c r="D3">
         <v>0.06</v>
       </c>
-      <c r="D3">
-        <v>3.35</v>
-      </c>
-      <c r="F3">
-        <v>3.35</v>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>sun hat</t>
         </is>
@@ -462,13 +436,10 @@
           <t>bücherschrank</t>
         </is>
       </c>
-      <c r="D4">
+      <c r="C4">
         <v>3.35</v>
       </c>
-      <c r="F4">
-        <v>3.35</v>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>bookcase</t>
         </is>
@@ -480,16 +451,13 @@
           <t>klapptisch</t>
         </is>
       </c>
-      <c r="B5">
+      <c r="C5">
+        <v>3.35</v>
+      </c>
+      <c r="D5">
         <v>0.21</v>
       </c>
-      <c r="D5">
-        <v>3.35</v>
-      </c>
-      <c r="F5">
-        <v>3.35</v>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>folding table</t>
         </is>
@@ -501,16 +469,13 @@
           <t>brotschrank</t>
         </is>
       </c>
-      <c r="B6">
+      <c r="C6">
+        <v>3.35</v>
+      </c>
+      <c r="D6">
         <v>0.01</v>
       </c>
-      <c r="D6">
-        <v>3.35</v>
-      </c>
-      <c r="F6">
-        <v>3.35</v>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>bread cupboard</t>
         </is>
@@ -522,28 +487,19 @@
           <t>birne</t>
         </is>
       </c>
-      <c r="B7">
-        <v>5.4</v>
-      </c>
       <c r="C7">
         <v>3.36</v>
       </c>
       <c r="D7">
-        <v>2.35</v>
-      </c>
-      <c r="F7">
-        <v>3.36</v>
-      </c>
-      <c r="H7" t="inlineStr">
+        <v>5.4</v>
+      </c>
+      <c r="E7">
+        <v>3.71</v>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>pear</t>
         </is>
-      </c>
-      <c r="I7">
-        <v>3.71</v>
-      </c>
-      <c r="J7">
-        <v>4.56</v>
       </c>
     </row>
     <row r="8">
@@ -552,28 +508,19 @@
           <t>löwe</t>
         </is>
       </c>
-      <c r="B8">
-        <v>15.72</v>
-      </c>
       <c r="C8">
         <v>3.36</v>
       </c>
       <c r="D8">
-        <v>2.15</v>
-      </c>
-      <c r="F8">
-        <v>3.36</v>
-      </c>
-      <c r="H8" t="inlineStr">
+        <v>15.72</v>
+      </c>
+      <c r="E8">
+        <v>1.95</v>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>lion</t>
         </is>
-      </c>
-      <c r="I8">
-        <v>1.95</v>
-      </c>
-      <c r="J8">
-        <v>4.43</v>
       </c>
     </row>
     <row r="9">
@@ -582,34 +529,25 @@
           <t>möhre</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C9">
         <v>3.36</v>
       </c>
       <c r="E9">
-        <v>2.9</v>
-      </c>
-      <c r="F9">
-        <v>3.36</v>
+        <v>2.09</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
           <t>carrot</t>
-        </is>
-      </c>
-      <c r="I9">
-        <v>2.09</v>
-      </c>
-      <c r="J9">
-        <v>3.05</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -619,28 +557,22 @@
           <t>regnen</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C10">
         <v>3.36</v>
       </c>
-      <c r="E10">
-        <v>2.43</v>
-      </c>
-      <c r="F10">
-        <v>3.36</v>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
           <t>rain</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -653,10 +585,7 @@
       <c r="C11">
         <v>3.36</v>
       </c>
-      <c r="F11">
-        <v>3.36</v>
-      </c>
-      <c r="H11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>fun</t>
         </is>
@@ -671,10 +600,7 @@
       <c r="C12">
         <v>3.36</v>
       </c>
-      <c r="F12">
-        <v>3.36</v>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>four</t>
         </is>
@@ -689,10 +615,7 @@
       <c r="C13">
         <v>3.37</v>
       </c>
-      <c r="F13">
-        <v>3.37</v>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>lid</t>
         </is>
@@ -707,19 +630,13 @@
       <c r="C14">
         <v>3.37</v>
       </c>
-      <c r="F14">
-        <v>3.37</v>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="E14">
+        <v>4.71</v>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>fly</t>
         </is>
-      </c>
-      <c r="I14">
-        <v>4.71</v>
-      </c>
-      <c r="J14">
-        <v>3.57</v>
       </c>
     </row>
     <row r="15">
@@ -731,10 +648,7 @@
       <c r="C15">
         <v>3.37</v>
       </c>
-      <c r="F15">
-        <v>3.37</v>
-      </c>
-      <c r="H15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>river</t>
         </is>
@@ -749,10 +663,7 @@
       <c r="C16">
         <v>3.37</v>
       </c>
-      <c r="F16">
-        <v>3.37</v>
-      </c>
-      <c r="H16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>handkerchief</t>
         </is>
@@ -767,10 +678,7 @@
       <c r="C17">
         <v>3.37</v>
       </c>
-      <c r="F17">
-        <v>3.37</v>
-      </c>
-      <c r="H17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>wind</t>
         </is>
@@ -785,10 +693,7 @@
       <c r="C18">
         <v>3.37</v>
       </c>
-      <c r="F18">
-        <v>3.37</v>
-      </c>
-      <c r="H18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>show</t>
         </is>
@@ -803,10 +708,7 @@
       <c r="C19">
         <v>3.38</v>
       </c>
-      <c r="F19">
-        <v>3.38</v>
-      </c>
-      <c r="H19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>baby</t>
         </is>
@@ -818,28 +720,19 @@
           <t>banane</t>
         </is>
       </c>
-      <c r="B20">
-        <v>3.26</v>
-      </c>
       <c r="C20">
         <v>3.38</v>
       </c>
       <c r="D20">
-        <v>2.6</v>
-      </c>
-      <c r="F20">
-        <v>3.38</v>
-      </c>
-      <c r="H20" t="inlineStr">
+        <v>3.26</v>
+      </c>
+      <c r="E20">
+        <v>1.95</v>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>banana</t>
         </is>
-      </c>
-      <c r="I20">
-        <v>1.95</v>
-      </c>
-      <c r="J20">
-        <v>3.59</v>
       </c>
     </row>
     <row r="21">
@@ -851,10 +744,7 @@
       <c r="C21">
         <v>3.38</v>
       </c>
-      <c r="F21">
-        <v>3.38</v>
-      </c>
-      <c r="H21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>must</t>
         </is>
@@ -869,10 +759,7 @@
       <c r="C22">
         <v>3.38</v>
       </c>
-      <c r="F22">
-        <v>3.38</v>
-      </c>
-      <c r="H22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>fruit</t>
         </is>
@@ -884,34 +771,25 @@
           <t>schere</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C23">
         <v>3.38</v>
       </c>
       <c r="E23">
-        <v>2.52</v>
-      </c>
-      <c r="F23">
-        <v>3.38</v>
+        <v>1.95</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
           <t>scissors</t>
-        </is>
-      </c>
-      <c r="I23">
-        <v>1.95</v>
-      </c>
-      <c r="J23">
-        <v>4.54</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -924,10 +802,7 @@
       <c r="C24">
         <v>3.38</v>
       </c>
-      <c r="F24">
-        <v>3.38</v>
-      </c>
-      <c r="H24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>soap</t>
         </is>
@@ -942,10 +817,7 @@
       <c r="C25">
         <v>3.38</v>
       </c>
-      <c r="F25">
-        <v>3.38</v>
-      </c>
-      <c r="H25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>street</t>
         </is>
@@ -960,10 +832,7 @@
       <c r="C26">
         <v>3.38</v>
       </c>
-      <c r="F26">
-        <v>3.38</v>
-      </c>
-      <c r="H26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>forbidden</t>
         </is>
@@ -978,10 +847,7 @@
       <c r="C27">
         <v>3.39</v>
       </c>
-      <c r="F27">
-        <v>3.39</v>
-      </c>
-      <c r="H27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>scarf</t>
         </is>
@@ -996,10 +862,7 @@
       <c r="C28">
         <v>3.4</v>
       </c>
-      <c r="F28">
-        <v>3.4</v>
-      </c>
-      <c r="H28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>sour</t>
         </is>
@@ -1011,16 +874,13 @@
           <t>pute</t>
         </is>
       </c>
-      <c r="B29">
+      <c r="C29">
+        <v>3.4</v>
+      </c>
+      <c r="D29">
         <v>0.5600000000000001</v>
       </c>
-      <c r="D29">
-        <v>3.4</v>
-      </c>
-      <c r="F29">
-        <v>3.4</v>
-      </c>
-      <c r="H29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>turkey</t>
         </is>
@@ -1032,16 +892,13 @@
           <t>stoffhose</t>
         </is>
       </c>
-      <c r="B30">
+      <c r="C30">
+        <v>3.4</v>
+      </c>
+      <c r="D30">
         <v>0.01</v>
       </c>
-      <c r="D30">
-        <v>3.4</v>
-      </c>
-      <c r="F30">
-        <v>3.4</v>
-      </c>
-      <c r="H30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>cloth trousers</t>
         </is>
@@ -1053,16 +910,13 @@
           <t>haarband</t>
         </is>
       </c>
-      <c r="B31">
+      <c r="C31">
+        <v>3.4</v>
+      </c>
+      <c r="D31">
         <v>0.09</v>
       </c>
-      <c r="D31">
-        <v>3.4</v>
-      </c>
-      <c r="F31">
-        <v>3.4</v>
-      </c>
-      <c r="H31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>hairband</t>
         </is>
@@ -1074,16 +928,13 @@
           <t>liege</t>
         </is>
       </c>
-      <c r="B32">
+      <c r="C32">
+        <v>3.4</v>
+      </c>
+      <c r="D32">
         <v>2.17</v>
       </c>
-      <c r="D32">
-        <v>3.4</v>
-      </c>
-      <c r="F32">
-        <v>3.4</v>
-      </c>
-      <c r="H32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>chaise longue</t>
         </is>
@@ -1095,16 +946,13 @@
           <t>schmied</t>
         </is>
       </c>
-      <c r="B33">
+      <c r="C33">
+        <v>3.4</v>
+      </c>
+      <c r="D33">
         <v>4.88</v>
       </c>
-      <c r="D33">
-        <v>3.4</v>
-      </c>
-      <c r="F33">
-        <v>3.4</v>
-      </c>
-      <c r="H33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>blacksmith</t>
         </is>
@@ -1116,16 +964,13 @@
           <t>schaffner</t>
         </is>
       </c>
-      <c r="B34">
+      <c r="C34">
+        <v>3.4</v>
+      </c>
+      <c r="D34">
         <v>4.61</v>
       </c>
-      <c r="D34">
-        <v>3.4</v>
-      </c>
-      <c r="F34">
-        <v>3.4</v>
-      </c>
-      <c r="H34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>conductor</t>
         </is>
@@ -1137,16 +982,13 @@
           <t>erzieher</t>
         </is>
       </c>
-      <c r="B35">
+      <c r="C35">
+        <v>3.4</v>
+      </c>
+      <c r="D35">
         <v>8.73</v>
       </c>
-      <c r="D35">
-        <v>3.4</v>
-      </c>
-      <c r="F35">
-        <v>3.4</v>
-      </c>
-      <c r="H35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>educator</t>
         </is>
@@ -1161,10 +1003,7 @@
       <c r="C36">
         <v>3.42</v>
       </c>
-      <c r="F36">
-        <v>3.42</v>
-      </c>
-      <c r="H36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>burn</t>
         </is>
@@ -1179,10 +1018,7 @@
       <c r="C37">
         <v>3.42</v>
       </c>
-      <c r="F37">
-        <v>3.42</v>
-      </c>
-      <c r="H37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>friend</t>
         </is>
@@ -1197,10 +1033,7 @@
       <c r="C38">
         <v>3.42</v>
       </c>
-      <c r="F38">
-        <v>3.42</v>
-      </c>
-      <c r="H38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>cheerful</t>
         </is>
@@ -1212,28 +1045,19 @@
           <t>fuchs</t>
         </is>
       </c>
-      <c r="B39">
-        <v>12.57</v>
-      </c>
       <c r="C39">
         <v>3.42</v>
       </c>
       <c r="D39">
-        <v>2.15</v>
-      </c>
-      <c r="F39">
-        <v>3.42</v>
-      </c>
-      <c r="H39" t="inlineStr">
+        <v>12.57</v>
+      </c>
+      <c r="E39">
+        <v>3.21</v>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>fox</t>
         </is>
-      </c>
-      <c r="I39">
-        <v>3.21</v>
-      </c>
-      <c r="J39">
-        <v>4.05</v>
       </c>
     </row>
     <row r="40">
@@ -1245,10 +1069,7 @@
       <c r="C40">
         <v>3.42</v>
       </c>
-      <c r="F40">
-        <v>3.42</v>
-      </c>
-      <c r="H40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>garden</t>
         </is>
@@ -1263,19 +1084,13 @@
       <c r="C41">
         <v>3.42</v>
       </c>
-      <c r="F41">
-        <v>3.42</v>
-      </c>
-      <c r="H41" t="inlineStr">
+      <c r="E41">
+        <v>3.21</v>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>candle</t>
         </is>
-      </c>
-      <c r="I41">
-        <v>3.21</v>
-      </c>
-      <c r="J41">
-        <v>5.42</v>
       </c>
     </row>
     <row r="42">
@@ -1287,10 +1102,7 @@
       <c r="C42">
         <v>3.42</v>
       </c>
-      <c r="F42">
-        <v>3.42</v>
-      </c>
-      <c r="H42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>put</t>
         </is>
@@ -1305,10 +1117,7 @@
       <c r="C43">
         <v>3.42</v>
       </c>
-      <c r="F43">
-        <v>3.42</v>
-      </c>
-      <c r="H43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>romp</t>
         </is>
@@ -1323,10 +1132,7 @@
       <c r="C44">
         <v>3.42</v>
       </c>
-      <c r="F44">
-        <v>3.42</v>
-      </c>
-      <c r="H44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>drop</t>
         </is>
@@ -1341,10 +1147,7 @@
       <c r="C45">
         <v>3.42</v>
       </c>
-      <c r="F45">
-        <v>3.42</v>
-      </c>
-      <c r="H45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>little</t>
         </is>
@@ -1356,25 +1159,22 @@
           <t>pinsel</t>
         </is>
       </c>
-      <c r="E46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C46">
         <v>3.43</v>
       </c>
-      <c r="F46">
-        <v>3.43</v>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
           <t>paintbrush</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -1387,10 +1187,7 @@
       <c r="C47">
         <v>3.43</v>
       </c>
-      <c r="F47">
-        <v>3.43</v>
-      </c>
-      <c r="H47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>light</t>
         </is>
@@ -1405,10 +1202,7 @@
       <c r="C48">
         <v>3.44</v>
       </c>
-      <c r="F48">
-        <v>3.44</v>
-      </c>
-      <c r="H48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>colourful</t>
         </is>
@@ -1423,10 +1217,7 @@
       <c r="C49">
         <v>3.44</v>
       </c>
-      <c r="F49">
-        <v>3.44</v>
-      </c>
-      <c r="H49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>music</t>
         </is>
@@ -1438,28 +1229,19 @@
           <t>spinne</t>
         </is>
       </c>
-      <c r="B50">
-        <v>6.31</v>
-      </c>
       <c r="C50">
         <v>3.44</v>
       </c>
       <c r="D50">
-        <v>2.15</v>
-      </c>
-      <c r="F50">
-        <v>3.44</v>
-      </c>
-      <c r="H50" t="inlineStr">
+        <v>6.31</v>
+      </c>
+      <c r="E50">
+        <v>2.09</v>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>spider</t>
         </is>
-      </c>
-      <c r="I50">
-        <v>2.09</v>
-      </c>
-      <c r="J50">
-        <v>3.94</v>
       </c>
     </row>
     <row r="51">
@@ -1471,10 +1253,7 @@
       <c r="C51">
         <v>3.44</v>
       </c>
-      <c r="F51">
-        <v>3.44</v>
-      </c>
-      <c r="H51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>dream</t>
         </is>
@@ -1486,19 +1265,13 @@
           <t>fußball</t>
         </is>
       </c>
-      <c r="B52">
-        <v>4.31</v>
-      </c>
       <c r="C52">
         <v>3.45</v>
       </c>
       <c r="D52">
-        <v>3</v>
-      </c>
-      <c r="F52">
-        <v>3.45</v>
-      </c>
-      <c r="H52" t="inlineStr">
+        <v>4.31</v>
+      </c>
+      <c r="G52" t="inlineStr">
         <is>
           <t>football</t>
         </is>
@@ -1513,10 +1286,7 @@
       <c r="C53">
         <v>3.45</v>
       </c>
-      <c r="F53">
-        <v>3.45</v>
-      </c>
-      <c r="H53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>paper</t>
         </is>
@@ -1528,16 +1298,13 @@
           <t>hecht</t>
         </is>
       </c>
-      <c r="B54">
+      <c r="C54">
+        <v>3.45</v>
+      </c>
+      <c r="D54">
         <v>3.25</v>
       </c>
-      <c r="D54">
-        <v>3.45</v>
-      </c>
-      <c r="F54">
-        <v>3.45</v>
-      </c>
-      <c r="H54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>pike</t>
         </is>
@@ -1549,16 +1316,13 @@
           <t>rote beete</t>
         </is>
       </c>
-      <c r="B55">
+      <c r="C55">
+        <v>3.45</v>
+      </c>
+      <c r="D55">
         <v>0</v>
       </c>
-      <c r="D55">
-        <v>3.45</v>
-      </c>
-      <c r="F55">
-        <v>3.45</v>
-      </c>
-      <c r="H55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>beetroot</t>
         </is>
@@ -1570,16 +1334,13 @@
           <t>hagebutte</t>
         </is>
       </c>
-      <c r="B56">
+      <c r="C56">
+        <v>3.45</v>
+      </c>
+      <c r="D56">
         <v>0.55</v>
       </c>
-      <c r="D56">
-        <v>3.45</v>
-      </c>
-      <c r="F56">
-        <v>3.45</v>
-      </c>
-      <c r="H56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>rosehip</t>
         </is>
@@ -1591,13 +1352,10 @@
           <t>balkontisch</t>
         </is>
       </c>
-      <c r="D57">
+      <c r="C57">
         <v>3.45</v>
       </c>
-      <c r="F57">
-        <v>3.45</v>
-      </c>
-      <c r="H57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>balcony table</t>
         </is>
@@ -1609,16 +1367,13 @@
           <t>schlagzeug</t>
         </is>
       </c>
-      <c r="B58">
+      <c r="C58">
+        <v>3.45</v>
+      </c>
+      <c r="D58">
         <v>2.66</v>
       </c>
-      <c r="D58">
-        <v>3.45</v>
-      </c>
-      <c r="F58">
-        <v>3.45</v>
-      </c>
-      <c r="H58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>drumkit</t>
         </is>
@@ -1630,25 +1385,19 @@
           <t>schraubenzieher</t>
         </is>
       </c>
-      <c r="B59">
+      <c r="C59">
+        <v>3.45</v>
+      </c>
+      <c r="D59">
         <v>0.76</v>
       </c>
-      <c r="D59">
-        <v>3.45</v>
-      </c>
-      <c r="F59">
-        <v>3.45</v>
-      </c>
-      <c r="H59" t="inlineStr">
+      <c r="E59">
+        <v>5.71</v>
+      </c>
+      <c r="G59" t="inlineStr">
         <is>
           <t>screwdriver</t>
         </is>
-      </c>
-      <c r="I59">
-        <v>5.71</v>
-      </c>
-      <c r="J59">
-        <v>6.17</v>
       </c>
     </row>
     <row r="60">
@@ -1657,16 +1406,13 @@
           <t>quirl</t>
         </is>
       </c>
-      <c r="B60">
+      <c r="C60">
+        <v>3.45</v>
+      </c>
+      <c r="D60">
         <v>0.52</v>
       </c>
-      <c r="D60">
-        <v>3.45</v>
-      </c>
-      <c r="F60">
-        <v>3.45</v>
-      </c>
-      <c r="H60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>whisk</t>
         </is>
@@ -1678,16 +1424,13 @@
           <t>tauchen</t>
         </is>
       </c>
-      <c r="B61">
+      <c r="C61">
+        <v>3.45</v>
+      </c>
+      <c r="D61">
         <v>0.65</v>
       </c>
-      <c r="D61">
-        <v>3.45</v>
-      </c>
-      <c r="F61">
-        <v>3.45</v>
-      </c>
-      <c r="H61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>diving</t>
         </is>
@@ -1699,16 +1442,13 @@
           <t>schauspieler</t>
         </is>
       </c>
-      <c r="B62">
+      <c r="C62">
+        <v>3.45</v>
+      </c>
+      <c r="D62">
         <v>20.4</v>
       </c>
-      <c r="D62">
-        <v>3.45</v>
-      </c>
-      <c r="F62">
-        <v>3.45</v>
-      </c>
-      <c r="H62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>actor</t>
         </is>
@@ -1723,10 +1463,7 @@
       <c r="C63">
         <v>3.46</v>
       </c>
-      <c r="F63">
-        <v>3.46</v>
-      </c>
-      <c r="H63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>thing</t>
         </is>
@@ -1741,10 +1478,7 @@
       <c r="C64">
         <v>3.46</v>
       </c>
-      <c r="F64">
-        <v>3.46</v>
-      </c>
-      <c r="H64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>get</t>
         </is>
@@ -1759,10 +1493,7 @@
       <c r="C65">
         <v>3.46</v>
       </c>
-      <c r="F65">
-        <v>3.46</v>
-      </c>
-      <c r="H65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>tongue</t>
         </is>
@@ -1777,10 +1508,7 @@
       <c r="C66">
         <v>3.47</v>
       </c>
-      <c r="F66">
-        <v>3.47</v>
-      </c>
-      <c r="H66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>old</t>
         </is>
@@ -1795,10 +1523,7 @@
       <c r="C67">
         <v>3.47</v>
       </c>
-      <c r="F67">
-        <v>3.47</v>
-      </c>
-      <c r="H67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>lightening</t>
         </is>
@@ -1810,40 +1535,28 @@
           <t>erdbeere</t>
         </is>
       </c>
-      <c r="B68">
-        <v>2.83</v>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="C68">
         <v>3.47</v>
       </c>
       <c r="D68">
-        <v>1.8</v>
+        <v>2.83</v>
       </c>
       <c r="E68">
-        <v>2.52</v>
-      </c>
-      <c r="F68">
-        <v>3.47</v>
+        <v>3.71</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
           <t>strawberry</t>
-        </is>
-      </c>
-      <c r="I68">
-        <v>3.71</v>
-      </c>
-      <c r="J68">
-        <v>4.21</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -1856,10 +1569,7 @@
       <c r="C69">
         <v>3.47</v>
       </c>
-      <c r="F69">
-        <v>3.47</v>
-      </c>
-      <c r="H69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>drive</t>
         </is>
@@ -1874,10 +1584,7 @@
       <c r="C70">
         <v>3.47</v>
       </c>
-      <c r="F70">
-        <v>3.47</v>
-      </c>
-      <c r="H70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>give</t>
         </is>
@@ -1892,10 +1599,7 @@
       <c r="C71">
         <v>3.47</v>
       </c>
-      <c r="F71">
-        <v>3.47</v>
-      </c>
-      <c r="H71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>horn</t>
         </is>
@@ -1910,10 +1614,7 @@
       <c r="C72">
         <v>3.47</v>
       </c>
-      <c r="F72">
-        <v>3.47</v>
-      </c>
-      <c r="H72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>seat</t>
         </is>
@@ -1928,10 +1629,7 @@
       <c r="C73">
         <v>3.47</v>
       </c>
-      <c r="F73">
-        <v>3.47</v>
-      </c>
-      <c r="H73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>mirror</t>
         </is>
@@ -1946,10 +1644,7 @@
       <c r="C74">
         <v>3.47</v>
       </c>
-      <c r="F74">
-        <v>3.47</v>
-      </c>
-      <c r="H74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>step</t>
         </is>
@@ -1964,10 +1659,7 @@
       <c r="C75">
         <v>3.47</v>
       </c>
-      <c r="F75">
-        <v>3.47</v>
-      </c>
-      <c r="H75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>carpet</t>
         </is>
@@ -1982,10 +1674,7 @@
       <c r="C76">
         <v>3.48</v>
       </c>
-      <c r="F76">
-        <v>3.48</v>
-      </c>
-      <c r="H76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>build</t>
         </is>
@@ -2000,19 +1689,13 @@
       <c r="C77">
         <v>3.48</v>
       </c>
-      <c r="F77">
-        <v>3.48</v>
-      </c>
-      <c r="H77" t="inlineStr">
+      <c r="E77">
+        <v>4.21</v>
+      </c>
+      <c r="G77" t="inlineStr">
         <is>
           <t>donkey</t>
         </is>
-      </c>
-      <c r="I77">
-        <v>4.21</v>
-      </c>
-      <c r="J77">
-        <v>4.78</v>
       </c>
     </row>
     <row r="78">
@@ -2024,10 +1707,7 @@
       <c r="C78">
         <v>3.5</v>
       </c>
-      <c r="F78">
-        <v>3.5</v>
-      </c>
-      <c r="H78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>finished</t>
         </is>
@@ -2042,10 +1722,7 @@
       <c r="C79">
         <v>3.5</v>
       </c>
-      <c r="F79">
-        <v>3.5</v>
-      </c>
-      <c r="H79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>seize</t>
         </is>
@@ -2057,28 +1734,19 @@
           <t>käfer</t>
         </is>
       </c>
-      <c r="B80">
-        <v>5.84</v>
-      </c>
       <c r="C80">
         <v>3.5</v>
       </c>
       <c r="D80">
-        <v>1.7</v>
-      </c>
-      <c r="F80">
-        <v>3.5</v>
-      </c>
-      <c r="H80" t="inlineStr">
+        <v>5.84</v>
+      </c>
+      <c r="E80">
+        <v>7.21</v>
+      </c>
+      <c r="G80" t="inlineStr">
         <is>
           <t>beetle</t>
         </is>
-      </c>
-      <c r="I80">
-        <v>7.21</v>
-      </c>
-      <c r="J80">
-        <v>5.19</v>
       </c>
     </row>
     <row r="81">
@@ -2090,10 +1758,7 @@
       <c r="C81">
         <v>3.5</v>
       </c>
-      <c r="F81">
-        <v>3.5</v>
-      </c>
-      <c r="H81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>round</t>
         </is>
@@ -2108,10 +1773,7 @@
       <c r="C82">
         <v>3.5</v>
       </c>
-      <c r="F82">
-        <v>3.5</v>
-      </c>
-      <c r="H82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>strong</t>
         </is>
@@ -2126,10 +1788,7 @@
       <c r="C83">
         <v>3.5</v>
       </c>
-      <c r="F83">
-        <v>3.5</v>
-      </c>
-      <c r="H83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>soup</t>
         </is>
@@ -2141,16 +1800,13 @@
           <t>raubkatze</t>
         </is>
       </c>
-      <c r="B84">
+      <c r="C84">
+        <v>3.5</v>
+      </c>
+      <c r="D84">
         <v>0.25</v>
       </c>
-      <c r="D84">
-        <v>3.5</v>
-      </c>
-      <c r="F84">
-        <v>3.5</v>
-      </c>
-      <c r="H84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>big cat</t>
         </is>
@@ -2162,16 +1818,13 @@
           <t>porree</t>
         </is>
       </c>
-      <c r="B85">
+      <c r="C85">
+        <v>3.5</v>
+      </c>
+      <c r="D85">
         <v>0.92</v>
       </c>
-      <c r="D85">
-        <v>3.5</v>
-      </c>
-      <c r="F85">
-        <v>3.5</v>
-      </c>
-      <c r="H85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>leek</t>
         </is>
@@ -2183,16 +1836,13 @@
           <t>weitsprung</t>
         </is>
       </c>
-      <c r="B86">
+      <c r="C86">
+        <v>3.5</v>
+      </c>
+      <c r="D86">
         <v>0.52</v>
       </c>
-      <c r="D86">
-        <v>3.5</v>
-      </c>
-      <c r="F86">
-        <v>3.5</v>
-      </c>
-      <c r="H86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>long jump</t>
         </is>
@@ -2204,16 +1854,13 @@
           <t>klempner</t>
         </is>
       </c>
-      <c r="B87">
+      <c r="C87">
+        <v>3.5</v>
+      </c>
+      <c r="D87">
         <v>1.01</v>
       </c>
-      <c r="D87">
-        <v>3.5</v>
-      </c>
-      <c r="F87">
-        <v>3.5</v>
-      </c>
-      <c r="H87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>plumber</t>
         </is>
@@ -2225,16 +1872,13 @@
           <t>matrose</t>
         </is>
       </c>
-      <c r="B88">
+      <c r="C88">
+        <v>3.5</v>
+      </c>
+      <c r="D88">
         <v>8.619999999999999</v>
       </c>
-      <c r="D88">
-        <v>3.5</v>
-      </c>
-      <c r="F88">
-        <v>3.5</v>
-      </c>
-      <c r="H88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>sailor</t>
         </is>
@@ -2249,10 +1893,7 @@
       <c r="C89">
         <v>3.52</v>
       </c>
-      <c r="F89">
-        <v>3.52</v>
-      </c>
-      <c r="H89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>hole</t>
         </is>
@@ -2267,10 +1908,7 @@
       <c r="C90">
         <v>3.52</v>
       </c>
-      <c r="F90">
-        <v>3.52</v>
-      </c>
-      <c r="H90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>full</t>
         </is>
@@ -2282,16 +1920,13 @@
           <t>kahn</t>
         </is>
       </c>
-      <c r="B91">
+      <c r="C91">
+        <v>3.53</v>
+      </c>
+      <c r="D91">
         <v>5.16</v>
       </c>
-      <c r="D91">
-        <v>3.53</v>
-      </c>
-      <c r="F91">
-        <v>3.53</v>
-      </c>
-      <c r="H91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>rowing boat</t>
         </is>
@@ -2306,10 +1941,7 @@
       <c r="C92">
         <v>3.53</v>
       </c>
-      <c r="F92">
-        <v>3.53</v>
-      </c>
-      <c r="H92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>shower</t>
         </is>
@@ -2324,10 +1956,7 @@
       <c r="C93">
         <v>3.53</v>
       </c>
-      <c r="F93">
-        <v>3.53</v>
-      </c>
-      <c r="H93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>find</t>
         </is>
@@ -2342,10 +1971,7 @@
       <c r="C94">
         <v>3.53</v>
       </c>
-      <c r="F94">
-        <v>3.53</v>
-      </c>
-      <c r="H94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>wall</t>
         </is>
@@ -2360,10 +1986,7 @@
       <c r="C95">
         <v>3.53</v>
       </c>
-      <c r="F95">
-        <v>3.53</v>
-      </c>
-      <c r="H95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>sack</t>
         </is>
@@ -2378,10 +2001,7 @@
       <c r="C96">
         <v>3.53</v>
       </c>
-      <c r="F96">
-        <v>3.53</v>
-      </c>
-      <c r="H96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>cream</t>
         </is>
@@ -2396,10 +2016,7 @@
       <c r="C97">
         <v>3.53</v>
       </c>
-      <c r="F97">
-        <v>3.53</v>
-      </c>
-      <c r="H97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>foam</t>
         </is>
@@ -2411,34 +2028,25 @@
           <t>telefon</t>
         </is>
       </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C98">
         <v>3.53</v>
       </c>
       <c r="E98">
-        <v>2.9</v>
-      </c>
-      <c r="F98">
-        <v>3.53</v>
+        <v>1.95</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
           <t>telephone</t>
-        </is>
-      </c>
-      <c r="I98">
-        <v>1.95</v>
-      </c>
-      <c r="J98">
-        <v>6.2</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -2451,10 +2059,7 @@
       <c r="C99">
         <v>3.54</v>
       </c>
-      <c r="F99">
-        <v>3.54</v>
-      </c>
-      <c r="H99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>sphere</t>
         </is>
@@ -2469,10 +2074,7 @@
       <c r="C100">
         <v>3.54</v>
       </c>
-      <c r="F100">
-        <v>3.54</v>
-      </c>
-      <c r="H100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>plant</t>
         </is>
@@ -2487,19 +2089,13 @@
       <c r="C101">
         <v>3.55</v>
       </c>
-      <c r="F101">
-        <v>3.55</v>
-      </c>
-      <c r="H101" t="inlineStr">
+      <c r="E101">
+        <v>1.95</v>
+      </c>
+      <c r="G101" t="inlineStr">
         <is>
           <t>bike</t>
         </is>
-      </c>
-      <c r="I101">
-        <v>1.95</v>
-      </c>
-      <c r="J101">
-        <v>4.35</v>
       </c>
     </row>
     <row r="102">
@@ -2508,16 +2104,13 @@
           <t>nashorn</t>
         </is>
       </c>
-      <c r="B102">
+      <c r="C102">
+        <v>3.55</v>
+      </c>
+      <c r="D102">
         <v>1.7</v>
       </c>
-      <c r="D102">
-        <v>3.55</v>
-      </c>
-      <c r="F102">
-        <v>3.55</v>
-      </c>
-      <c r="H102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>rhinoceros</t>
         </is>
@@ -2529,25 +2122,19 @@
           <t>orange</t>
         </is>
       </c>
-      <c r="B103">
+      <c r="C103">
+        <v>3.55</v>
+      </c>
+      <c r="D103">
         <v>4.03</v>
       </c>
-      <c r="D103">
-        <v>3.55</v>
-      </c>
-      <c r="F103">
-        <v>3.55</v>
-      </c>
-      <c r="H103" t="inlineStr">
+      <c r="E103">
+        <v>3.21</v>
+      </c>
+      <c r="G103" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
-      </c>
-      <c r="I103">
-        <v>3.21</v>
-      </c>
-      <c r="J103">
-        <v>3.75</v>
       </c>
     </row>
     <row r="104">
@@ -2556,16 +2143,13 @@
           <t>umhang</t>
         </is>
       </c>
-      <c r="B104">
+      <c r="C104">
+        <v>3.55</v>
+      </c>
+      <c r="D104">
         <v>1.42</v>
       </c>
-      <c r="D104">
-        <v>3.55</v>
-      </c>
-      <c r="F104">
-        <v>3.55</v>
-      </c>
-      <c r="H104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>cloak</t>
         </is>
@@ -2577,13 +2161,10 @@
           <t>rollschuh</t>
         </is>
       </c>
-      <c r="D105">
+      <c r="C105">
         <v>3.55</v>
       </c>
-      <c r="F105">
-        <v>3.55</v>
-      </c>
-      <c r="H105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>roller blade</t>
         </is>
@@ -2595,16 +2176,13 @@
           <t>triangel</t>
         </is>
       </c>
-      <c r="B106">
+      <c r="C106">
+        <v>3.55</v>
+      </c>
+      <c r="D106">
         <v>0.54</v>
       </c>
-      <c r="D106">
-        <v>3.55</v>
-      </c>
-      <c r="F106">
-        <v>3.55</v>
-      </c>
-      <c r="H106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>triangle</t>
         </is>
@@ -2616,16 +2194,13 @@
           <t>boxen</t>
         </is>
       </c>
-      <c r="B107">
+      <c r="C107">
+        <v>3.55</v>
+      </c>
+      <c r="D107">
         <v>1.82</v>
       </c>
-      <c r="D107">
-        <v>3.55</v>
-      </c>
-      <c r="F107">
-        <v>3.55</v>
-      </c>
-      <c r="H107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>boxing</t>
         </is>
@@ -2637,16 +2212,13 @@
           <t>tischler</t>
         </is>
       </c>
-      <c r="B108">
+      <c r="C108">
+        <v>3.55</v>
+      </c>
+      <c r="D108">
         <v>2.89</v>
       </c>
-      <c r="D108">
-        <v>3.55</v>
-      </c>
-      <c r="F108">
-        <v>3.55</v>
-      </c>
-      <c r="H108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>joiner</t>
         </is>
@@ -2658,16 +2230,13 @@
           <t>bademeister</t>
         </is>
       </c>
-      <c r="B109">
+      <c r="C109">
+        <v>3.55</v>
+      </c>
+      <c r="D109">
         <v>0.62</v>
       </c>
-      <c r="D109">
-        <v>3.55</v>
-      </c>
-      <c r="F109">
-        <v>3.55</v>
-      </c>
-      <c r="H109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>pool attendant</t>
         </is>
@@ -2682,10 +2251,7 @@
       <c r="C110">
         <v>3.56</v>
       </c>
-      <c r="F110">
-        <v>3.56</v>
-      </c>
-      <c r="H110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>plaster</t>
         </is>
@@ -2700,10 +2266,7 @@
       <c r="C111">
         <v>3.56</v>
       </c>
-      <c r="F111">
-        <v>3.56</v>
-      </c>
-      <c r="H111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>ointment</t>
         </is>
@@ -2718,10 +2281,7 @@
       <c r="C112">
         <v>3.56</v>
       </c>
-      <c r="F112">
-        <v>3.56</v>
-      </c>
-      <c r="H112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>grave</t>
         </is>
@@ -2733,19 +2293,13 @@
           <t>schrank</t>
         </is>
       </c>
-      <c r="B113">
-        <v>15.98</v>
-      </c>
       <c r="C113">
         <v>3.56</v>
       </c>
       <c r="D113">
-        <v>1.95</v>
-      </c>
-      <c r="F113">
-        <v>3.56</v>
-      </c>
-      <c r="H113" t="inlineStr">
+        <v>15.98</v>
+      </c>
+      <c r="G113" t="inlineStr">
         <is>
           <t>cupboard</t>
         </is>
@@ -2760,10 +2314,7 @@
       <c r="C114">
         <v>3.56</v>
       </c>
-      <c r="F114">
-        <v>3.56</v>
-      </c>
-      <c r="H114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>rope</t>
         </is>
@@ -2775,19 +2326,13 @@
           <t>sofa</t>
         </is>
       </c>
-      <c r="B115">
-        <v>10.86</v>
-      </c>
       <c r="C115">
         <v>3.57</v>
       </c>
       <c r="D115">
-        <v>2.25</v>
-      </c>
-      <c r="F115">
-        <v>3.57</v>
-      </c>
-      <c r="H115" t="inlineStr">
+        <v>10.86</v>
+      </c>
+      <c r="G115" t="inlineStr">
         <is>
           <t>sofa</t>
         </is>
@@ -2802,10 +2347,7 @@
       <c r="C116">
         <v>3.58</v>
       </c>
-      <c r="F116">
-        <v>3.58</v>
-      </c>
-      <c r="H116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>cheek</t>
         </is>
@@ -2817,19 +2359,13 @@
           <t>regal</t>
         </is>
       </c>
-      <c r="B117">
-        <v>6.52</v>
-      </c>
       <c r="C117">
         <v>3.58</v>
       </c>
       <c r="D117">
-        <v>2.25</v>
-      </c>
-      <c r="F117">
-        <v>3.58</v>
-      </c>
-      <c r="H117" t="inlineStr">
+        <v>6.52</v>
+      </c>
+      <c r="G117" t="inlineStr">
         <is>
           <t>shelf</t>
         </is>
@@ -2844,10 +2380,7 @@
       <c r="C118">
         <v>3.58</v>
       </c>
-      <c r="F118">
-        <v>3.58</v>
-      </c>
-      <c r="H118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>stink</t>
         </is>
@@ -2862,10 +2395,7 @@
       <c r="C119">
         <v>3.58</v>
       </c>
-      <c r="F119">
-        <v>3.58</v>
-      </c>
-      <c r="H119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>sweet</t>
         </is>
@@ -2880,10 +2410,7 @@
       <c r="C120">
         <v>3.59</v>
       </c>
-      <c r="F120">
-        <v>3.59</v>
-      </c>
-      <c r="H120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>photo</t>
         </is>
@@ -2898,10 +2425,7 @@
       <c r="C121">
         <v>3.59</v>
       </c>
-      <c r="F121">
-        <v>3.59</v>
-      </c>
-      <c r="H121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>collect</t>
         </is>
@@ -2916,10 +2440,7 @@
       <c r="C122">
         <v>3.6</v>
       </c>
-      <c r="F122">
-        <v>3.6</v>
-      </c>
-      <c r="H122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>age</t>
         </is>
@@ -2934,19 +2455,13 @@
       <c r="C123">
         <v>3.6</v>
       </c>
-      <c r="F123">
-        <v>3.6</v>
-      </c>
-      <c r="H123" t="inlineStr">
+      <c r="E123">
+        <v>1.95</v>
+      </c>
+      <c r="G123" t="inlineStr">
         <is>
           <t>glasses</t>
         </is>
-      </c>
-      <c r="I123">
-        <v>1.95</v>
-      </c>
-      <c r="J123">
-        <v>4.78</v>
       </c>
     </row>
     <row r="124">
@@ -2958,10 +2473,7 @@
       <c r="C124">
         <v>3.6</v>
       </c>
-      <c r="F124">
-        <v>3.6</v>
-      </c>
-      <c r="H124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>be called</t>
         </is>
@@ -2976,10 +2488,7 @@
       <c r="C125">
         <v>3.6</v>
       </c>
-      <c r="F125">
-        <v>3.6</v>
-      </c>
-      <c r="H125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>rose</t>
         </is>
@@ -2994,10 +2503,7 @@
       <c r="C126">
         <v>3.6</v>
       </c>
-      <c r="F126">
-        <v>3.6</v>
-      </c>
-      <c r="H126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>forest</t>
         </is>
@@ -3009,25 +2515,19 @@
           <t>fledermaus</t>
         </is>
       </c>
-      <c r="B127">
+      <c r="C127">
+        <v>3.6</v>
+      </c>
+      <c r="D127">
         <v>4.41</v>
       </c>
-      <c r="D127">
-        <v>3.6</v>
-      </c>
-      <c r="F127">
-        <v>3.6</v>
-      </c>
-      <c r="H127" t="inlineStr">
+      <c r="E127">
+        <v>4.71</v>
+      </c>
+      <c r="G127" t="inlineStr">
         <is>
           <t>bat</t>
         </is>
-      </c>
-      <c r="I127">
-        <v>4.71</v>
-      </c>
-      <c r="J127">
-        <v>4.69</v>
       </c>
     </row>
     <row r="128">
@@ -3036,16 +2536,13 @@
           <t>nilpferd</t>
         </is>
       </c>
-      <c r="B128">
+      <c r="C128">
+        <v>3.6</v>
+      </c>
+      <c r="D128">
         <v>0.83</v>
       </c>
-      <c r="D128">
-        <v>3.6</v>
-      </c>
-      <c r="F128">
-        <v>3.6</v>
-      </c>
-      <c r="H128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>hippopotamus</t>
         </is>
@@ -3057,16 +2554,13 @@
           <t>seehund</t>
         </is>
       </c>
-      <c r="B129">
+      <c r="C129">
+        <v>3.6</v>
+      </c>
+      <c r="D129">
         <v>0.89</v>
       </c>
-      <c r="D129">
-        <v>3.6</v>
-      </c>
-      <c r="F129">
-        <v>3.6</v>
-      </c>
-      <c r="H129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>seal</t>
         </is>
@@ -3078,16 +2572,13 @@
           <t>blechtrommel</t>
         </is>
       </c>
-      <c r="B130">
+      <c r="C130">
+        <v>3.6</v>
+      </c>
+      <c r="D130">
         <v>0.73</v>
       </c>
-      <c r="D130">
-        <v>3.6</v>
-      </c>
-      <c r="F130">
-        <v>3.6</v>
-      </c>
-      <c r="H130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>tin drum</t>
         </is>
@@ -3102,19 +2593,13 @@
       <c r="C131">
         <v>3.61</v>
       </c>
-      <c r="F131">
-        <v>3.61</v>
-      </c>
-      <c r="H131" t="inlineStr">
+      <c r="E131">
+        <v>3.21</v>
+      </c>
+      <c r="G131" t="inlineStr">
         <is>
           <t>bottle</t>
         </is>
-      </c>
-      <c r="I131">
-        <v>3.21</v>
-      </c>
-      <c r="J131">
-        <v>3.62</v>
       </c>
     </row>
     <row r="132">
@@ -3126,10 +2611,7 @@
       <c r="C132">
         <v>3.61</v>
       </c>
-      <c r="F132">
-        <v>3.61</v>
-      </c>
-      <c r="H132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>marble</t>
         </is>
@@ -3144,10 +2626,7 @@
       <c r="C133">
         <v>3.61</v>
       </c>
-      <c r="F133">
-        <v>3.61</v>
-      </c>
-      <c r="H133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>gateau</t>
         </is>
@@ -3159,25 +2638,22 @@
           <t>graben</t>
         </is>
       </c>
-      <c r="E134">
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C134">
         <v>3.62</v>
       </c>
-      <c r="F134">
-        <v>3.62</v>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
           <t>dig</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -3190,19 +2666,13 @@
       <c r="C135">
         <v>3.63</v>
       </c>
-      <c r="F135">
-        <v>3.63</v>
-      </c>
-      <c r="H135" t="inlineStr">
+      <c r="E135">
+        <v>3.21</v>
+      </c>
+      <c r="G135" t="inlineStr">
         <is>
           <t>clown</t>
         </is>
-      </c>
-      <c r="I135">
-        <v>3.21</v>
-      </c>
-      <c r="J135">
-        <v>3.72</v>
       </c>
     </row>
     <row r="136">
@@ -3214,10 +2684,7 @@
       <c r="C136">
         <v>3.63</v>
       </c>
-      <c r="F136">
-        <v>3.63</v>
-      </c>
-      <c r="H136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>roof</t>
         </is>
@@ -3232,10 +2699,7 @@
       <c r="C137">
         <v>3.63</v>
       </c>
-      <c r="F137">
-        <v>3.63</v>
-      </c>
-      <c r="H137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>family</t>
         </is>
@@ -3250,19 +2714,13 @@
       <c r="C138">
         <v>3.63</v>
       </c>
-      <c r="F138">
-        <v>3.63</v>
-      </c>
-      <c r="H138" t="inlineStr">
+      <c r="E138">
+        <v>5.21</v>
+      </c>
+      <c r="G138" t="inlineStr">
         <is>
           <t>fairy</t>
         </is>
-      </c>
-      <c r="I138">
-        <v>5.21</v>
-      </c>
-      <c r="J138">
-        <v>4.51</v>
       </c>
     </row>
     <row r="139">
@@ -3271,28 +2729,19 @@
           <t>frosch</t>
         </is>
       </c>
-      <c r="B139">
-        <v>6.65</v>
-      </c>
       <c r="C139">
         <v>3.63</v>
       </c>
       <c r="D139">
-        <v>2.05</v>
-      </c>
-      <c r="F139">
-        <v>3.63</v>
-      </c>
-      <c r="H139" t="inlineStr">
+        <v>6.65</v>
+      </c>
+      <c r="E139">
+        <v>1.95</v>
+      </c>
+      <c r="G139" t="inlineStr">
         <is>
           <t>frog</t>
         </is>
-      </c>
-      <c r="I139">
-        <v>1.95</v>
-      </c>
-      <c r="J139">
-        <v>4.34</v>
       </c>
     </row>
     <row r="140">
@@ -3304,10 +2753,7 @@
       <c r="C140">
         <v>3.63</v>
       </c>
-      <c r="F140">
-        <v>3.63</v>
-      </c>
-      <c r="H140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>nod</t>
         </is>
@@ -3322,10 +2768,7 @@
       <c r="C141">
         <v>3.63</v>
       </c>
-      <c r="F141">
-        <v>3.63</v>
-      </c>
-      <c r="H141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>forbid</t>
         </is>
@@ -3337,16 +2780,13 @@
           <t>blumenständer</t>
         </is>
       </c>
-      <c r="B142">
+      <c r="C142">
+        <v>3.63</v>
+      </c>
+      <c r="D142">
         <v>0.09</v>
       </c>
-      <c r="D142">
-        <v>3.63</v>
-      </c>
-      <c r="F142">
-        <v>3.63</v>
-      </c>
-      <c r="H142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>flower stand</t>
         </is>
@@ -3361,10 +2801,7 @@
       <c r="C143">
         <v>3.64</v>
       </c>
-      <c r="F143">
-        <v>3.64</v>
-      </c>
-      <c r="H143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>meat</t>
         </is>
@@ -3379,10 +2816,7 @@
       <c r="C144">
         <v>3.64</v>
       </c>
-      <c r="F144">
-        <v>3.64</v>
-      </c>
-      <c r="H144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>cellar</t>
         </is>
@@ -3397,10 +2831,7 @@
       <c r="C145">
         <v>3.64</v>
       </c>
-      <c r="F145">
-        <v>3.64</v>
-      </c>
-      <c r="H145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>pullover</t>
         </is>
@@ -3412,19 +2843,13 @@
           <t>schaufel</t>
         </is>
       </c>
-      <c r="B146">
-        <v>3.88</v>
-      </c>
       <c r="C146">
         <v>3.64</v>
       </c>
       <c r="D146">
-        <v>3.05</v>
-      </c>
-      <c r="F146">
-        <v>3.64</v>
-      </c>
-      <c r="H146" t="inlineStr">
+        <v>3.88</v>
+      </c>
+      <c r="G146" t="inlineStr">
         <is>
           <t>shovel</t>
         </is>
@@ -3439,10 +2864,7 @@
       <c r="C147">
         <v>3.64</v>
       </c>
-      <c r="F147">
-        <v>3.64</v>
-      </c>
-      <c r="H147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>sugar</t>
         </is>
@@ -3457,10 +2879,7 @@
       <c r="C148">
         <v>3.65</v>
       </c>
-      <c r="F148">
-        <v>3.65</v>
-      </c>
-      <c r="H148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>traffic light</t>
         </is>
@@ -3475,10 +2894,7 @@
       <c r="C149">
         <v>3.65</v>
       </c>
-      <c r="F149">
-        <v>3.65</v>
-      </c>
-      <c r="H149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>summer</t>
         </is>
@@ -3493,10 +2909,7 @@
       <c r="C150">
         <v>3.65</v>
       </c>
-      <c r="F150">
-        <v>3.65</v>
-      </c>
-      <c r="H150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>kick</t>
         </is>
@@ -3508,40 +2921,28 @@
           <t>zebra</t>
         </is>
       </c>
-      <c r="B151">
-        <v>0.6</v>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="C151">
         <v>3.65</v>
       </c>
       <c r="D151">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="E151">
-        <v>3.43</v>
-      </c>
-      <c r="F151">
-        <v>3.65</v>
+        <v>3.71</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
           <t>zebra</t>
-        </is>
-      </c>
-      <c r="I151">
-        <v>3.71</v>
-      </c>
-      <c r="J151">
-        <v>5.26</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -3554,10 +2955,7 @@
       <c r="C152">
         <v>3.65</v>
       </c>
-      <c r="F152">
-        <v>3.65</v>
-      </c>
-      <c r="H152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>plait</t>
         </is>
@@ -3572,10 +2970,7 @@
       <c r="C153">
         <v>3.65</v>
       </c>
-      <c r="F153">
-        <v>3.65</v>
-      </c>
-      <c r="H153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>home</t>
         </is>
@@ -3587,16 +2982,13 @@
           <t>delphin</t>
         </is>
       </c>
-      <c r="B154">
+      <c r="C154">
+        <v>3.65</v>
+      </c>
+      <c r="D154">
         <v>5.62</v>
       </c>
-      <c r="D154">
-        <v>3.65</v>
-      </c>
-      <c r="F154">
-        <v>3.65</v>
-      </c>
-      <c r="H154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>dolphin</t>
         </is>
@@ -3608,16 +3000,13 @@
           <t>buntspecht</t>
         </is>
       </c>
-      <c r="B155">
+      <c r="C155">
+        <v>3.65</v>
+      </c>
+      <c r="D155">
         <v>0.25</v>
       </c>
-      <c r="D155">
-        <v>3.65</v>
-      </c>
-      <c r="F155">
-        <v>3.65</v>
-      </c>
-      <c r="H155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>spotted woodpecker</t>
         </is>
@@ -3629,16 +3018,13 @@
           <t>schreibtischstuhl</t>
         </is>
       </c>
-      <c r="B156">
+      <c r="C156">
+        <v>3.65</v>
+      </c>
+      <c r="D156">
         <v>0.16</v>
       </c>
-      <c r="D156">
-        <v>3.65</v>
-      </c>
-      <c r="F156">
-        <v>3.65</v>
-      </c>
-      <c r="H156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>desk chair</t>
         </is>
@@ -3650,16 +3036,13 @@
           <t>tischtennis</t>
         </is>
       </c>
-      <c r="B157">
+      <c r="C157">
+        <v>3.65</v>
+      </c>
+      <c r="D157">
         <v>0.44</v>
       </c>
-      <c r="D157">
-        <v>3.65</v>
-      </c>
-      <c r="F157">
-        <v>3.65</v>
-      </c>
-      <c r="H157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>table tennis</t>
         </is>
@@ -3671,13 +3054,10 @@
           <t>laufroller</t>
         </is>
       </c>
-      <c r="D158">
+      <c r="C158">
         <v>3.67</v>
       </c>
-      <c r="F158">
-        <v>3.67</v>
-      </c>
-      <c r="H158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>scooter</t>
         </is>
@@ -3689,28 +3069,19 @@
           <t>boot</t>
         </is>
       </c>
-      <c r="B159">
-        <v>30.31</v>
-      </c>
       <c r="C159">
         <v>3.67</v>
       </c>
       <c r="D159">
-        <v>1.7</v>
-      </c>
-      <c r="F159">
-        <v>3.67</v>
-      </c>
-      <c r="H159" t="inlineStr">
+        <v>30.31</v>
+      </c>
+      <c r="E159">
+        <v>1.95</v>
+      </c>
+      <c r="G159" t="inlineStr">
         <is>
           <t>boat</t>
         </is>
-      </c>
-      <c r="I159">
-        <v>1.95</v>
-      </c>
-      <c r="J159">
-        <v>5.32</v>
       </c>
     </row>
     <row r="160">
@@ -3722,10 +3093,7 @@
       <c r="C160">
         <v>3.67</v>
       </c>
-      <c r="F160">
-        <v>3.67</v>
-      </c>
-      <c r="H160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>earth</t>
         </is>
@@ -3740,10 +3108,7 @@
       <c r="C161">
         <v>3.67</v>
       </c>
-      <c r="F161">
-        <v>3.67</v>
-      </c>
-      <c r="H161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>jointly</t>
         </is>
@@ -3758,10 +3123,7 @@
       <c r="C162">
         <v>3.67</v>
       </c>
-      <c r="F162">
-        <v>3.67</v>
-      </c>
-      <c r="H162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>cocoa</t>
         </is>
@@ -3773,34 +3135,25 @@
           <t>pilz</t>
         </is>
       </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C163">
         <v>3.67</v>
       </c>
       <c r="E163">
-        <v>3.33</v>
-      </c>
-      <c r="F163">
-        <v>3.67</v>
+        <v>5.21</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
           <t>mushroom</t>
-        </is>
-      </c>
-      <c r="I163">
-        <v>5.21</v>
-      </c>
-      <c r="J163">
-        <v>6.44</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -3813,19 +3166,13 @@
       <c r="C164">
         <v>3.67</v>
       </c>
-      <c r="F164">
-        <v>3.67</v>
-      </c>
-      <c r="H164" t="inlineStr">
+      <c r="E164">
+        <v>1.95</v>
+      </c>
+      <c r="G164" t="inlineStr">
         <is>
           <t>boot</t>
         </is>
-      </c>
-      <c r="I164">
-        <v>1.95</v>
-      </c>
-      <c r="J164">
-        <v>4.44</v>
       </c>
     </row>
     <row r="165">
@@ -3837,10 +3184,7 @@
       <c r="C165">
         <v>3.68</v>
       </c>
-      <c r="F165">
-        <v>3.68</v>
-      </c>
-      <c r="H165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>woman</t>
         </is>
@@ -3852,28 +3196,19 @@
           <t>hemd</t>
         </is>
       </c>
-      <c r="B166">
-        <v>20.31</v>
-      </c>
       <c r="C166">
         <v>3.68</v>
       </c>
       <c r="D166">
-        <v>1.75</v>
-      </c>
-      <c r="F166">
-        <v>3.68</v>
-      </c>
-      <c r="H166" t="inlineStr">
+        <v>20.31</v>
+      </c>
+      <c r="E166">
+        <v>4.71</v>
+      </c>
+      <c r="G166" t="inlineStr">
         <is>
           <t>shirt</t>
         </is>
-      </c>
-      <c r="I166">
-        <v>4.71</v>
-      </c>
-      <c r="J166">
-        <v>4.19</v>
       </c>
     </row>
     <row r="167">
@@ -3885,10 +3220,7 @@
       <c r="C167">
         <v>3.68</v>
       </c>
-      <c r="F167">
-        <v>3.68</v>
-      </c>
-      <c r="H167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>nail</t>
         </is>
@@ -3903,10 +3235,7 @@
       <c r="C168">
         <v>3.68</v>
       </c>
-      <c r="F168">
-        <v>3.68</v>
-      </c>
-      <c r="H168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>easter egg</t>
         </is>
@@ -3921,10 +3250,7 @@
       <c r="C169">
         <v>3.68</v>
       </c>
-      <c r="F169">
-        <v>3.68</v>
-      </c>
-      <c r="H169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>sauce</t>
         </is>
@@ -3939,10 +3265,7 @@
       <c r="C170">
         <v>3.68</v>
       </c>
-      <c r="F170">
-        <v>3.68</v>
-      </c>
-      <c r="H170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>tower</t>
         </is>
@@ -3957,10 +3280,7 @@
       <c r="C171">
         <v>3.68</v>
       </c>
-      <c r="F171">
-        <v>3.68</v>
-      </c>
-      <c r="H171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>meadow</t>
         </is>
@@ -3975,10 +3295,7 @@
       <c r="C172">
         <v>3.69</v>
       </c>
-      <c r="F172">
-        <v>3.69</v>
-      </c>
-      <c r="H172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>in the evening</t>
         </is>
@@ -3993,10 +3310,7 @@
       <c r="C173">
         <v>3.69</v>
       </c>
-      <c r="F173">
-        <v>3.69</v>
-      </c>
-      <c r="H173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>new</t>
         </is>
@@ -4011,10 +3325,7 @@
       <c r="C174">
         <v>3.69</v>
       </c>
-      <c r="F174">
-        <v>3.69</v>
-      </c>
-      <c r="H174" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>soft</t>
         </is>
@@ -4029,10 +3340,7 @@
       <c r="C175">
         <v>3.7</v>
       </c>
-      <c r="F175">
-        <v>3.7</v>
-      </c>
-      <c r="H175" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>bake</t>
         </is>
@@ -4047,10 +3355,7 @@
       <c r="C176">
         <v>3.7</v>
       </c>
-      <c r="F176">
-        <v>3.7</v>
-      </c>
-      <c r="H176" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>cream</t>
         </is>
@@ -4065,10 +3370,7 @@
       <c r="C177">
         <v>3.7</v>
       </c>
-      <c r="F177">
-        <v>3.7</v>
-      </c>
-      <c r="H177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>hoist</t>
         </is>
@@ -4083,10 +3385,7 @@
       <c r="C178">
         <v>3.7</v>
       </c>
-      <c r="F178">
-        <v>3.7</v>
-      </c>
-      <c r="H178" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>hot</t>
         </is>
@@ -4101,10 +3400,7 @@
       <c r="C179">
         <v>3.7</v>
       </c>
-      <c r="F179">
-        <v>3.7</v>
-      </c>
-      <c r="H179" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>meet</t>
         </is>
@@ -4116,16 +3412,13 @@
           <t>mandarine</t>
         </is>
       </c>
-      <c r="B180">
+      <c r="C180">
+        <v>3.7</v>
+      </c>
+      <c r="D180">
         <v>1.02</v>
       </c>
-      <c r="D180">
-        <v>3.7</v>
-      </c>
-      <c r="F180">
-        <v>3.7</v>
-      </c>
-      <c r="H180" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>tangerine</t>
         </is>
@@ -4137,16 +3430,13 @@
           <t>motorboot</t>
         </is>
       </c>
-      <c r="B181">
+      <c r="C181">
+        <v>3.7</v>
+      </c>
+      <c r="D181">
         <v>1.54</v>
       </c>
-      <c r="D181">
-        <v>3.7</v>
-      </c>
-      <c r="F181">
-        <v>3.7</v>
-      </c>
-      <c r="H181" t="inlineStr">
+      <c r="G181" t="inlineStr">
         <is>
           <t>motorboat</t>
         </is>
@@ -4158,16 +3448,13 @@
           <t>maurer</t>
         </is>
       </c>
-      <c r="B182">
+      <c r="C182">
+        <v>3.7</v>
+      </c>
+      <c r="D182">
         <v>6.77</v>
       </c>
-      <c r="D182">
-        <v>3.7</v>
-      </c>
-      <c r="F182">
-        <v>3.7</v>
-      </c>
-      <c r="H182" t="inlineStr">
+      <c r="G182" t="inlineStr">
         <is>
           <t>mason</t>
         </is>
@@ -4179,16 +3466,13 @@
           <t>tierpfleger</t>
         </is>
       </c>
-      <c r="B183">
+      <c r="C183">
+        <v>3.7</v>
+      </c>
+      <c r="D183">
         <v>0.23</v>
       </c>
-      <c r="D183">
-        <v>3.7</v>
-      </c>
-      <c r="F183">
-        <v>3.7</v>
-      </c>
-      <c r="H183" t="inlineStr">
+      <c r="G183" t="inlineStr">
         <is>
           <t>zookeeper</t>
         </is>
@@ -4203,10 +3487,7 @@
       <c r="C184">
         <v>3.71</v>
       </c>
-      <c r="F184">
-        <v>3.71</v>
-      </c>
-      <c r="H184" t="inlineStr">
+      <c r="G184" t="inlineStr">
         <is>
           <t>field</t>
         </is>
@@ -4221,10 +3502,7 @@
       <c r="C185">
         <v>3.71</v>
       </c>
-      <c r="F185">
-        <v>3.71</v>
-      </c>
-      <c r="H185" t="inlineStr">
+      <c r="G185" t="inlineStr">
         <is>
           <t>pull</t>
         </is>
@@ -4236,19 +3514,13 @@
           <t>polizist</t>
         </is>
       </c>
-      <c r="B186">
-        <v>16.73</v>
-      </c>
       <c r="C186">
         <v>3.72</v>
       </c>
       <c r="D186">
-        <v>2.45</v>
-      </c>
-      <c r="F186">
-        <v>3.72</v>
-      </c>
-      <c r="H186" t="inlineStr">
+        <v>16.73</v>
+      </c>
+      <c r="G186" t="inlineStr">
         <is>
           <t>policeman</t>
         </is>
@@ -4263,10 +3535,7 @@
       <c r="C187">
         <v>3.72</v>
       </c>
-      <c r="F187">
-        <v>3.72</v>
-      </c>
-      <c r="H187" t="inlineStr">
+      <c r="G187" t="inlineStr">
         <is>
           <t>rice</t>
         </is>
@@ -4281,10 +3550,7 @@
       <c r="C188">
         <v>3.72</v>
       </c>
-      <c r="F188">
-        <v>3.72</v>
-      </c>
-      <c r="H188" t="inlineStr">
+      <c r="G188" t="inlineStr">
         <is>
           <t>trunk</t>
         </is>
@@ -4296,28 +3562,19 @@
           <t>kirsche</t>
         </is>
       </c>
-      <c r="B189">
-        <v>3.42</v>
-      </c>
       <c r="C189">
         <v>3.73</v>
       </c>
       <c r="D189">
-        <v>2.3</v>
-      </c>
-      <c r="F189">
-        <v>3.73</v>
-      </c>
-      <c r="H189" t="inlineStr">
+        <v>3.42</v>
+      </c>
+      <c r="E189">
+        <v>6.21</v>
+      </c>
+      <c r="G189" t="inlineStr">
         <is>
           <t>cherry</t>
         </is>
-      </c>
-      <c r="I189">
-        <v>6.21</v>
-      </c>
-      <c r="J189">
-        <v>5.41</v>
       </c>
     </row>
     <row r="190">
@@ -4329,19 +3586,13 @@
       <c r="C190">
         <v>3.74</v>
       </c>
-      <c r="F190">
-        <v>3.74</v>
-      </c>
-      <c r="H190" t="inlineStr">
+      <c r="E190">
+        <v>1.84</v>
+      </c>
+      <c r="G190" t="inlineStr">
         <is>
           <t>balloon</t>
         </is>
-      </c>
-      <c r="I190">
-        <v>1.84</v>
-      </c>
-      <c r="J190">
-        <v>3.67</v>
       </c>
     </row>
     <row r="191">
@@ -4353,10 +3604,7 @@
       <c r="C191">
         <v>3.74</v>
       </c>
-      <c r="F191">
-        <v>3.74</v>
-      </c>
-      <c r="H191" t="inlineStr">
+      <c r="G191" t="inlineStr">
         <is>
           <t>stranger</t>
         </is>
@@ -4368,19 +3616,13 @@
           <t>kran</t>
         </is>
       </c>
-      <c r="B192">
-        <v>2.67</v>
-      </c>
       <c r="C192">
         <v>3.74</v>
       </c>
       <c r="D192">
-        <v>2.9</v>
-      </c>
-      <c r="F192">
-        <v>3.74</v>
-      </c>
-      <c r="H192" t="inlineStr">
+        <v>2.67</v>
+      </c>
+      <c r="G192" t="inlineStr">
         <is>
           <t>crane</t>
         </is>
@@ -4395,10 +3637,7 @@
       <c r="C193">
         <v>3.75</v>
       </c>
-      <c r="F193">
-        <v>3.75</v>
-      </c>
-      <c r="H193" t="inlineStr">
+      <c r="G193" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -4413,10 +3652,7 @@
       <c r="C194">
         <v>3.75</v>
       </c>
-      <c r="F194">
-        <v>3.75</v>
-      </c>
-      <c r="H194" t="inlineStr">
+      <c r="G194" t="inlineStr">
         <is>
           <t>prince</t>
         </is>
@@ -4428,16 +3664,13 @@
           <t>marder</t>
         </is>
       </c>
-      <c r="B195">
+      <c r="C195">
+        <v>3.75</v>
+      </c>
+      <c r="D195">
         <v>0.63</v>
       </c>
-      <c r="D195">
-        <v>3.75</v>
-      </c>
-      <c r="F195">
-        <v>3.75</v>
-      </c>
-      <c r="H195" t="inlineStr">
+      <c r="G195" t="inlineStr">
         <is>
           <t>marten</t>
         </is>
@@ -4449,16 +3682,13 @@
           <t>elster</t>
         </is>
       </c>
-      <c r="B196">
+      <c r="C196">
+        <v>3.75</v>
+      </c>
+      <c r="D196">
         <v>1.7</v>
       </c>
-      <c r="D196">
-        <v>3.75</v>
-      </c>
-      <c r="F196">
-        <v>3.75</v>
-      </c>
-      <c r="H196" t="inlineStr">
+      <c r="G196" t="inlineStr">
         <is>
           <t>magpie</t>
         </is>
@@ -4470,16 +3700,13 @@
           <t>seilbahn</t>
         </is>
       </c>
-      <c r="B197">
+      <c r="C197">
+        <v>3.75</v>
+      </c>
+      <c r="D197">
         <v>0.39</v>
       </c>
-      <c r="D197">
-        <v>3.75</v>
-      </c>
-      <c r="F197">
-        <v>3.75</v>
-      </c>
-      <c r="H197" t="inlineStr">
+      <c r="G197" t="inlineStr">
         <is>
           <t>cable car</t>
         </is>
@@ -4491,16 +3718,13 @@
           <t>sitzecke</t>
         </is>
       </c>
-      <c r="B198">
+      <c r="C198">
+        <v>3.75</v>
+      </c>
+      <c r="D198">
         <v>0.49</v>
       </c>
-      <c r="D198">
-        <v>3.75</v>
-      </c>
-      <c r="F198">
-        <v>3.75</v>
-      </c>
-      <c r="H198" t="inlineStr">
+      <c r="G198" t="inlineStr">
         <is>
           <t>seating area</t>
         </is>
@@ -4512,16 +3736,13 @@
           <t>hängeschrank</t>
         </is>
       </c>
-      <c r="B199">
+      <c r="C199">
+        <v>3.75</v>
+      </c>
+      <c r="D199">
         <v>0.08</v>
       </c>
-      <c r="D199">
-        <v>3.75</v>
-      </c>
-      <c r="F199">
-        <v>3.75</v>
-      </c>
-      <c r="H199" t="inlineStr">
+      <c r="G199" t="inlineStr">
         <is>
           <t>wall cupboard</t>
         </is>
@@ -4533,16 +3754,13 @@
           <t>kraftfahrer</t>
         </is>
       </c>
-      <c r="B200">
+      <c r="C200">
+        <v>3.75</v>
+      </c>
+      <c r="D200">
         <v>2.37</v>
       </c>
-      <c r="D200">
-        <v>3.75</v>
-      </c>
-      <c r="F200">
-        <v>3.75</v>
-      </c>
-      <c r="H200" t="inlineStr">
+      <c r="G200" t="inlineStr">
         <is>
           <t>driver</t>
         </is>
@@ -4557,10 +3775,7 @@
       <c r="C201">
         <v>3.76</v>
       </c>
-      <c r="F201">
-        <v>3.76</v>
-      </c>
-      <c r="H201" t="inlineStr">
+      <c r="G201" t="inlineStr">
         <is>
           <t>glue</t>
         </is>
@@ -4575,10 +3790,7 @@
       <c r="C202">
         <v>3.76</v>
       </c>
-      <c r="F202">
-        <v>3.76</v>
-      </c>
-      <c r="H202" t="inlineStr">
+      <c r="G202" t="inlineStr">
         <is>
           <t>human being</t>
         </is>
@@ -4593,10 +3805,7 @@
       <c r="C203">
         <v>3.76</v>
       </c>
-      <c r="F203">
-        <v>3.76</v>
-      </c>
-      <c r="H203" t="inlineStr">
+      <c r="G203" t="inlineStr">
         <is>
           <t>step</t>
         </is>
@@ -4608,25 +3817,22 @@
           <t>hämmern</t>
         </is>
       </c>
-      <c r="E204">
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C204">
         <v>3.76</v>
       </c>
-      <c r="F204">
-        <v>3.76</v>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H204" t="inlineStr">
-        <is>
           <t>hammer</t>
-        </is>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -4639,10 +3845,7 @@
       <c r="C205">
         <v>3.77</v>
       </c>
-      <c r="F205">
-        <v>3.77</v>
-      </c>
-      <c r="H205" t="inlineStr">
+      <c r="G205" t="inlineStr">
         <is>
           <t>hideout</t>
         </is>
@@ -4657,10 +3860,7 @@
       <c r="C206">
         <v>3.78</v>
       </c>
-      <c r="F206">
-        <v>3.78</v>
-      </c>
-      <c r="H206" t="inlineStr">
+      <c r="G206" t="inlineStr">
         <is>
           <t>railway</t>
         </is>
@@ -4675,10 +3875,7 @@
       <c r="C207">
         <v>3.78</v>
       </c>
-      <c r="F207">
-        <v>3.78</v>
-      </c>
-      <c r="H207" t="inlineStr">
+      <c r="G207" t="inlineStr">
         <is>
           <t>grandfather</t>
         </is>
@@ -4693,10 +3890,7 @@
       <c r="C208">
         <v>3.78</v>
       </c>
-      <c r="F208">
-        <v>3.78</v>
-      </c>
-      <c r="H208" t="inlineStr">
+      <c r="G208" t="inlineStr">
         <is>
           <t>lantern</t>
         </is>
@@ -4708,13 +3902,10 @@
           <t>fahrradrennen</t>
         </is>
       </c>
-      <c r="D209">
+      <c r="C209">
         <v>3.79</v>
       </c>
-      <c r="F209">
-        <v>3.79</v>
-      </c>
-      <c r="H209" t="inlineStr">
+      <c r="G209" t="inlineStr">
         <is>
           <t>bicycle racing</t>
         </is>
@@ -4729,10 +3920,7 @@
       <c r="C210">
         <v>3.79</v>
       </c>
-      <c r="F210">
-        <v>3.79</v>
-      </c>
-      <c r="H210" t="inlineStr">
+      <c r="G210" t="inlineStr">
         <is>
           <t>annoyance</t>
         </is>
@@ -4747,10 +3935,7 @@
       <c r="C211">
         <v>3.79</v>
       </c>
-      <c r="F211">
-        <v>3.79</v>
-      </c>
-      <c r="H211" t="inlineStr">
+      <c r="G211" t="inlineStr">
         <is>
           <t>get</t>
         </is>
@@ -4765,10 +3950,7 @@
       <c r="C212">
         <v>3.79</v>
       </c>
-      <c r="F212">
-        <v>3.79</v>
-      </c>
-      <c r="H212" t="inlineStr">
+      <c r="G212" t="inlineStr">
         <is>
           <t>face</t>
         </is>
@@ -4780,40 +3962,28 @@
           <t>giraffe</t>
         </is>
       </c>
-      <c r="B213">
-        <v>0.95</v>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="C213">
         <v>3.79</v>
       </c>
       <c r="D213">
-        <v>2.35</v>
+        <v>0.95</v>
       </c>
       <c r="E213">
-        <v>3.05</v>
-      </c>
-      <c r="F213">
-        <v>3.79</v>
+        <v>3.21</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
           <t>giraffe</t>
-        </is>
-      </c>
-      <c r="I213">
-        <v>3.21</v>
-      </c>
-      <c r="J213">
-        <v>5.12</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -4826,10 +3996,7 @@
       <c r="C214">
         <v>3.79</v>
       </c>
-      <c r="F214">
-        <v>3.79</v>
-      </c>
-      <c r="H214" t="inlineStr">
+      <c r="G214" t="inlineStr">
         <is>
           <t>pet</t>
         </is>
@@ -4844,10 +4011,7 @@
       <c r="C215">
         <v>3.79</v>
       </c>
-      <c r="F215">
-        <v>3.79</v>
-      </c>
-      <c r="H215" t="inlineStr">
+      <c r="G215" t="inlineStr">
         <is>
           <t>steer</t>
         </is>
@@ -4862,10 +4026,7 @@
       <c r="C216">
         <v>3.79</v>
       </c>
-      <c r="F216">
-        <v>3.79</v>
-      </c>
-      <c r="H216" t="inlineStr">
+      <c r="G216" t="inlineStr">
         <is>
           <t>lick</t>
         </is>
@@ -4880,19 +4041,13 @@
       <c r="C217">
         <v>3.79</v>
       </c>
-      <c r="F217">
-        <v>3.79</v>
-      </c>
-      <c r="H217" t="inlineStr">
+      <c r="E217">
+        <v>3.71</v>
+      </c>
+      <c r="G217" t="inlineStr">
         <is>
           <t>caterpillar</t>
         </is>
-      </c>
-      <c r="I217">
-        <v>3.71</v>
-      </c>
-      <c r="J217">
-        <v>5.17</v>
       </c>
     </row>
     <row r="218">
@@ -4904,10 +4059,7 @@
       <c r="C218">
         <v>3.79</v>
       </c>
-      <c r="F218">
-        <v>3.79</v>
-      </c>
-      <c r="H218" t="inlineStr">
+      <c r="G218" t="inlineStr">
         <is>
           <t>dance</t>
         </is>
@@ -4922,10 +4074,7 @@
       <c r="C219">
         <v>3.79</v>
       </c>
-      <c r="F219">
-        <v>3.79</v>
-      </c>
-      <c r="H219" t="inlineStr">
+      <c r="G219" t="inlineStr">
         <is>
           <t>pigeon</t>
         </is>
@@ -4937,34 +4086,25 @@
           <t>fahrrad</t>
         </is>
       </c>
-      <c r="B220">
-        <v>8.85</v>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="C220">
         <v>3.8</v>
       </c>
       <c r="D220">
-        <v>2.3</v>
-      </c>
-      <c r="E220">
-        <v>3.19</v>
-      </c>
-      <c r="F220">
-        <v>3.8</v>
+        <v>8.85</v>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H220" t="inlineStr">
-        <is>
           <t>bicycle</t>
-        </is>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -4977,10 +4117,7 @@
       <c r="C221">
         <v>3.8</v>
       </c>
-      <c r="F221">
-        <v>3.8</v>
-      </c>
-      <c r="H221" t="inlineStr">
+      <c r="G221" t="inlineStr">
         <is>
           <t>wail</t>
         </is>
@@ -4992,19 +4129,13 @@
           <t>himbeere</t>
         </is>
       </c>
-      <c r="B222">
-        <v>1.29</v>
-      </c>
       <c r="C222">
         <v>3.8</v>
       </c>
       <c r="D222">
-        <v>2.7</v>
-      </c>
-      <c r="F222">
-        <v>3.8</v>
-      </c>
-      <c r="H222" t="inlineStr">
+        <v>1.29</v>
+      </c>
+      <c r="G222" t="inlineStr">
         <is>
           <t>raspberry</t>
         </is>
@@ -5019,10 +4150,7 @@
       <c r="C223">
         <v>3.8</v>
       </c>
-      <c r="F223">
-        <v>3.8</v>
-      </c>
-      <c r="H223" t="inlineStr">
+      <c r="G223" t="inlineStr">
         <is>
           <t>honey</t>
         </is>
@@ -5037,10 +4165,7 @@
       <c r="C224">
         <v>3.8</v>
       </c>
-      <c r="F224">
-        <v>3.8</v>
-      </c>
-      <c r="H224" t="inlineStr">
+      <c r="G224" t="inlineStr">
         <is>
           <t>calm</t>
         </is>
@@ -5055,10 +4180,7 @@
       <c r="C225">
         <v>3.8</v>
       </c>
-      <c r="F225">
-        <v>3.8</v>
-      </c>
-      <c r="H225" t="inlineStr">
+      <c r="G225" t="inlineStr">
         <is>
           <t>overthrow</t>
         </is>
@@ -5070,16 +4192,13 @@
           <t>kreuzspinne</t>
         </is>
       </c>
-      <c r="B226">
+      <c r="C226">
+        <v>3.8</v>
+      </c>
+      <c r="D226">
         <v>0.21</v>
       </c>
-      <c r="D226">
-        <v>3.8</v>
-      </c>
-      <c r="F226">
-        <v>3.8</v>
-      </c>
-      <c r="H226" t="inlineStr">
+      <c r="G226" t="inlineStr">
         <is>
           <t>garden spider</t>
         </is>
@@ -5091,16 +4210,13 @@
           <t>pute</t>
         </is>
       </c>
-      <c r="B227">
+      <c r="C227">
+        <v>3.8</v>
+      </c>
+      <c r="D227">
         <v>0.5600000000000001</v>
       </c>
-      <c r="D227">
-        <v>3.8</v>
-      </c>
-      <c r="F227">
-        <v>3.8</v>
-      </c>
-      <c r="H227" t="inlineStr">
+      <c r="G227" t="inlineStr">
         <is>
           <t>turkey</t>
         </is>
@@ -5112,16 +4228,13 @@
           <t>falke</t>
         </is>
       </c>
-      <c r="B228">
+      <c r="C228">
+        <v>3.8</v>
+      </c>
+      <c r="D228">
         <v>2.2</v>
       </c>
-      <c r="D228">
-        <v>3.8</v>
-      </c>
-      <c r="F228">
-        <v>3.8</v>
-      </c>
-      <c r="H228" t="inlineStr">
+      <c r="G228" t="inlineStr">
         <is>
           <t>hawk</t>
         </is>
@@ -5133,16 +4246,13 @@
           <t>kassierer</t>
         </is>
       </c>
-      <c r="B229">
+      <c r="C229">
+        <v>3.8</v>
+      </c>
+      <c r="D229">
         <v>1.24</v>
       </c>
-      <c r="D229">
-        <v>3.8</v>
-      </c>
-      <c r="F229">
-        <v>3.8</v>
-      </c>
-      <c r="H229" t="inlineStr">
+      <c r="G229" t="inlineStr">
         <is>
           <t>cashier</t>
         </is>
@@ -5154,28 +4264,19 @@
           <t>zitrone</t>
         </is>
       </c>
-      <c r="B230">
-        <v>4.28</v>
-      </c>
       <c r="C230">
         <v>3.81</v>
       </c>
       <c r="D230">
-        <v>2.7</v>
-      </c>
-      <c r="F230">
-        <v>3.81</v>
-      </c>
-      <c r="H230" t="inlineStr">
+        <v>4.28</v>
+      </c>
+      <c r="E230">
+        <v>3.71</v>
+      </c>
+      <c r="G230" t="inlineStr">
         <is>
           <t>lemon</t>
         </is>
-      </c>
-      <c r="I230">
-        <v>3.71</v>
-      </c>
-      <c r="J230">
-        <v>5.14</v>
       </c>
     </row>
     <row r="231">
@@ -5184,28 +4285,19 @@
           <t>hocker</t>
         </is>
       </c>
-      <c r="B231">
-        <v>2.02</v>
-      </c>
       <c r="C231">
         <v>3.82</v>
       </c>
       <c r="D231">
-        <v>3.05</v>
-      </c>
-      <c r="F231">
-        <v>3.82</v>
-      </c>
-      <c r="H231" t="inlineStr">
+        <v>2.02</v>
+      </c>
+      <c r="E231">
+        <v>4.21</v>
+      </c>
+      <c r="G231" t="inlineStr">
         <is>
           <t>stool</t>
         </is>
-      </c>
-      <c r="I231">
-        <v>4.21</v>
-      </c>
-      <c r="J231">
-        <v>5.64</v>
       </c>
     </row>
     <row r="232">
@@ -5217,10 +4309,7 @@
       <c r="C232">
         <v>3.82</v>
       </c>
-      <c r="F232">
-        <v>3.82</v>
-      </c>
-      <c r="H232" t="inlineStr">
+      <c r="G232" t="inlineStr">
         <is>
           <t>doorbell</t>
         </is>
@@ -5235,10 +4324,7 @@
       <c r="C233">
         <v>3.83</v>
       </c>
-      <c r="F233">
-        <v>3.83</v>
-      </c>
-      <c r="H233" t="inlineStr">
+      <c r="G233" t="inlineStr">
         <is>
           <t>visit</t>
         </is>
@@ -5253,10 +4339,7 @@
       <c r="C234">
         <v>3.83</v>
       </c>
-      <c r="F234">
-        <v>3.83</v>
-      </c>
-      <c r="H234" t="inlineStr">
+      <c r="G234" t="inlineStr">
         <is>
           <t>near</t>
         </is>
@@ -5271,19 +4354,13 @@
       <c r="C235">
         <v>3.84</v>
       </c>
-      <c r="F235">
-        <v>3.84</v>
-      </c>
-      <c r="H235" t="inlineStr">
+      <c r="E235">
+        <v>7.21</v>
+      </c>
+      <c r="G235" t="inlineStr">
         <is>
           <t>broom</t>
         </is>
-      </c>
-      <c r="I235">
-        <v>7.21</v>
-      </c>
-      <c r="J235">
-        <v>5.69</v>
       </c>
     </row>
     <row r="236">
@@ -5295,10 +4372,7 @@
       <c r="C236">
         <v>3.84</v>
       </c>
-      <c r="F236">
-        <v>3.84</v>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="G236" t="inlineStr">
         <is>
           <t>bridge</t>
         </is>
@@ -5313,10 +4387,7 @@
       <c r="C237">
         <v>3.84</v>
       </c>
-      <c r="F237">
-        <v>3.84</v>
-      </c>
-      <c r="H237" t="inlineStr">
+      <c r="G237" t="inlineStr">
         <is>
           <t>mashed potato</t>
         </is>
@@ -5328,19 +4399,13 @@
           <t>pony</t>
         </is>
       </c>
-      <c r="B238">
-        <v>1.49</v>
-      </c>
       <c r="C238">
         <v>3.84</v>
       </c>
       <c r="D238">
-        <v>1.95</v>
-      </c>
-      <c r="F238">
-        <v>3.84</v>
-      </c>
-      <c r="H238" t="inlineStr">
+        <v>1.49</v>
+      </c>
+      <c r="G238" t="inlineStr">
         <is>
           <t>pony</t>
         </is>
@@ -5355,10 +4420,7 @@
       <c r="C239">
         <v>3.84</v>
       </c>
-      <c r="F239">
-        <v>3.84</v>
-      </c>
-      <c r="H239" t="inlineStr">
+      <c r="G239" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
@@ -5373,10 +4435,7 @@
       <c r="C240">
         <v>3.84</v>
       </c>
-      <c r="F240">
-        <v>3.84</v>
-      </c>
-      <c r="H240" t="inlineStr">
+      <c r="G240" t="inlineStr">
         <is>
           <t>tub</t>
         </is>
@@ -5388,16 +4447,13 @@
           <t>schimpanse</t>
         </is>
       </c>
-      <c r="B241">
+      <c r="C241">
+        <v>3.85</v>
+      </c>
+      <c r="D241">
         <v>4.72</v>
       </c>
-      <c r="D241">
-        <v>3.85</v>
-      </c>
-      <c r="F241">
-        <v>3.85</v>
-      </c>
-      <c r="H241" t="inlineStr">
+      <c r="G241" t="inlineStr">
         <is>
           <t>chimpanzee</t>
         </is>
@@ -5409,16 +4465,13 @@
           <t>lama</t>
         </is>
       </c>
-      <c r="B242">
+      <c r="C242">
+        <v>3.85</v>
+      </c>
+      <c r="D242">
         <v>1.1</v>
       </c>
-      <c r="D242">
-        <v>3.85</v>
-      </c>
-      <c r="F242">
-        <v>3.85</v>
-      </c>
-      <c r="H242" t="inlineStr">
+      <c r="G242" t="inlineStr">
         <is>
           <t>llama</t>
         </is>
@@ -5430,16 +4483,13 @@
           <t>drossel</t>
         </is>
       </c>
-      <c r="B243">
+      <c r="C243">
+        <v>3.85</v>
+      </c>
+      <c r="D243">
         <v>0.7</v>
       </c>
-      <c r="D243">
-        <v>3.85</v>
-      </c>
-      <c r="F243">
-        <v>3.85</v>
-      </c>
-      <c r="H243" t="inlineStr">
+      <c r="G243" t="inlineStr">
         <is>
           <t>thrush</t>
         </is>
@@ -5451,25 +4501,19 @@
           <t>u-boot</t>
         </is>
       </c>
-      <c r="B244">
+      <c r="C244">
+        <v>3.85</v>
+      </c>
+      <c r="D244">
         <v>11.22</v>
       </c>
-      <c r="D244">
-        <v>3.85</v>
-      </c>
-      <c r="F244">
-        <v>3.85</v>
-      </c>
-      <c r="H244" t="inlineStr">
+      <c r="E244">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="G244" t="inlineStr">
         <is>
           <t>submarine</t>
         </is>
-      </c>
-      <c r="I244">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="J244">
-        <v>7.77</v>
       </c>
     </row>
     <row r="245">
@@ -5478,16 +4522,13 @@
           <t>kegeln</t>
         </is>
       </c>
-      <c r="B245">
+      <c r="C245">
+        <v>3.85</v>
+      </c>
+      <c r="D245">
         <v>0.37</v>
       </c>
-      <c r="D245">
-        <v>3.85</v>
-      </c>
-      <c r="F245">
-        <v>3.85</v>
-      </c>
-      <c r="H245" t="inlineStr">
+      <c r="G245" t="inlineStr">
         <is>
           <t>bowling</t>
         </is>
@@ -5499,25 +4540,22 @@
           <t>fernsehen</t>
         </is>
       </c>
-      <c r="E246">
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C246">
         <v>3.86</v>
       </c>
-      <c r="F246">
-        <v>3.86</v>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H246" t="inlineStr">
-        <is>
           <t>watch [tv]</t>
-        </is>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -5527,28 +4565,19 @@
           <t>hammer</t>
         </is>
       </c>
-      <c r="B247">
-        <v>10.89</v>
-      </c>
       <c r="C247">
         <v>3.86</v>
       </c>
       <c r="D247">
-        <v>2.15</v>
-      </c>
-      <c r="F247">
-        <v>3.86</v>
-      </c>
-      <c r="H247" t="inlineStr">
+        <v>10.89</v>
+      </c>
+      <c r="E247">
+        <v>2.09</v>
+      </c>
+      <c r="G247" t="inlineStr">
         <is>
           <t>hammer</t>
         </is>
-      </c>
-      <c r="I247">
-        <v>2.09</v>
-      </c>
-      <c r="J247">
-        <v>5.73</v>
       </c>
     </row>
     <row r="248">
@@ -5560,19 +4589,13 @@
       <c r="C248">
         <v>3.86</v>
       </c>
-      <c r="F248">
-        <v>3.86</v>
-      </c>
-      <c r="H248" t="inlineStr">
+      <c r="E248">
+        <v>4.21</v>
+      </c>
+      <c r="G248" t="inlineStr">
         <is>
           <t>necklace</t>
         </is>
-      </c>
-      <c r="I248">
-        <v>4.21</v>
-      </c>
-      <c r="J248">
-        <v>4.87</v>
       </c>
     </row>
     <row r="249">
@@ -5584,10 +4607,7 @@
       <c r="C249">
         <v>3.86</v>
       </c>
-      <c r="F249">
-        <v>3.86</v>
-      </c>
-      <c r="H249" t="inlineStr">
+      <c r="G249" t="inlineStr">
         <is>
           <t>knee-high</t>
         </is>
@@ -5599,28 +4619,19 @@
           <t>traktor</t>
         </is>
       </c>
-      <c r="B250">
-        <v>3.09</v>
-      </c>
       <c r="C250">
         <v>3.86</v>
       </c>
       <c r="D250">
-        <v>2.35</v>
-      </c>
-      <c r="F250">
-        <v>3.86</v>
-      </c>
-      <c r="H250" t="inlineStr">
+        <v>3.09</v>
+      </c>
+      <c r="E250">
+        <v>1.95</v>
+      </c>
+      <c r="G250" t="inlineStr">
         <is>
           <t>tractor</t>
         </is>
-      </c>
-      <c r="I250">
-        <v>1.95</v>
-      </c>
-      <c r="J250">
-        <v>5.28</v>
       </c>
     </row>
     <row r="251">
@@ -5632,19 +4643,13 @@
       <c r="C251">
         <v>3.86</v>
       </c>
-      <c r="F251">
-        <v>3.86</v>
-      </c>
-      <c r="H251" t="inlineStr">
+      <c r="E251">
+        <v>4.71</v>
+      </c>
+      <c r="G251" t="inlineStr">
         <is>
           <t>dice</t>
         </is>
-      </c>
-      <c r="I251">
-        <v>4.71</v>
-      </c>
-      <c r="J251">
-        <v>7.71</v>
       </c>
     </row>
     <row r="252">
@@ -5656,10 +4661,7 @@
       <c r="C252">
         <v>3.88</v>
       </c>
-      <c r="F252">
-        <v>3.88</v>
-      </c>
-      <c r="H252" t="inlineStr">
+      <c r="G252" t="inlineStr">
         <is>
           <t>tin</t>
         </is>
@@ -5674,10 +4676,7 @@
       <c r="C253">
         <v>3.88</v>
       </c>
-      <c r="F253">
-        <v>3.88</v>
-      </c>
-      <c r="H253" t="inlineStr">
+      <c r="G253" t="inlineStr">
         <is>
           <t>money</t>
         </is>
@@ -5692,10 +4691,7 @@
       <c r="C254">
         <v>3.88</v>
       </c>
-      <c r="F254">
-        <v>3.88</v>
-      </c>
-      <c r="H254" t="inlineStr">
+      <c r="G254" t="inlineStr">
         <is>
           <t>vegetables</t>
         </is>
@@ -5710,10 +4706,7 @@
       <c r="C255">
         <v>3.88</v>
       </c>
-      <c r="F255">
-        <v>3.88</v>
-      </c>
-      <c r="H255" t="inlineStr">
+      <c r="G255" t="inlineStr">
         <is>
           <t>part</t>
         </is>
@@ -5725,40 +4718,28 @@
           <t>tiger</t>
         </is>
       </c>
-      <c r="B256">
-        <v>7.85</v>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="C256">
         <v>3.88</v>
       </c>
       <c r="D256">
-        <v>2.65</v>
+        <v>7.85</v>
       </c>
       <c r="E256">
-        <v>3.24</v>
-      </c>
-      <c r="F256">
-        <v>3.88</v>
+        <v>3.71</v>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H256" t="inlineStr">
-        <is>
           <t>tiger</t>
-        </is>
-      </c>
-      <c r="I256">
-        <v>3.71</v>
-      </c>
-      <c r="J256">
-        <v>4.42</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -5768,28 +4749,19 @@
           <t>tomate</t>
         </is>
       </c>
-      <c r="B257">
-        <v>6.06</v>
-      </c>
       <c r="C257">
         <v>3.88</v>
       </c>
       <c r="D257">
-        <v>2.05</v>
-      </c>
-      <c r="F257">
-        <v>3.88</v>
-      </c>
-      <c r="H257" t="inlineStr">
+        <v>6.06</v>
+      </c>
+      <c r="E257">
+        <v>5.71</v>
+      </c>
+      <c r="G257" t="inlineStr">
         <is>
           <t>tomato</t>
         </is>
-      </c>
-      <c r="I257">
-        <v>5.71</v>
-      </c>
-      <c r="J257">
-        <v>4.61</v>
       </c>
     </row>
     <row r="258">
@@ -5801,10 +4773,7 @@
       <c r="C258">
         <v>3.88</v>
       </c>
-      <c r="F258">
-        <v>3.88</v>
-      </c>
-      <c r="H258" t="inlineStr">
+      <c r="G258" t="inlineStr">
         <is>
           <t>far</t>
         </is>
@@ -5819,10 +4788,7 @@
       <c r="C259">
         <v>3.88</v>
       </c>
-      <c r="F259">
-        <v>3.88</v>
-      </c>
-      <c r="H259" t="inlineStr">
+      <c r="G259" t="inlineStr">
         <is>
           <t>wish</t>
         </is>
@@ -5837,10 +4803,7 @@
       <c r="C260">
         <v>3.89</v>
       </c>
-      <c r="F260">
-        <v>3.89</v>
-      </c>
-      <c r="H260" t="inlineStr">
+      <c r="G260" t="inlineStr">
         <is>
           <t>plead</t>
         </is>
@@ -5855,10 +4818,7 @@
       <c r="C261">
         <v>3.89</v>
       </c>
-      <c r="F261">
-        <v>3.89</v>
-      </c>
-      <c r="H261" t="inlineStr">
+      <c r="G261" t="inlineStr">
         <is>
           <t>jaws</t>
         </is>
@@ -5873,10 +4833,7 @@
       <c r="C262">
         <v>3.89</v>
       </c>
-      <c r="F262">
-        <v>3.89</v>
-      </c>
-      <c r="H262" t="inlineStr">
+      <c r="G262" t="inlineStr">
         <is>
           <t>row</t>
         </is>
@@ -5891,10 +4848,7 @@
       <c r="C263">
         <v>3.9</v>
       </c>
-      <c r="F263">
-        <v>3.9</v>
-      </c>
-      <c r="H263" t="inlineStr">
+      <c r="G263" t="inlineStr">
         <is>
           <t>barefoot</t>
         </is>
@@ -5909,10 +4863,7 @@
       <c r="C264">
         <v>3.9</v>
       </c>
-      <c r="F264">
-        <v>3.9</v>
-      </c>
-      <c r="H264" t="inlineStr">
+      <c r="G264" t="inlineStr">
         <is>
           <t>nasty</t>
         </is>
@@ -5927,10 +4878,7 @@
       <c r="C265">
         <v>3.9</v>
       </c>
-      <c r="F265">
-        <v>3.9</v>
-      </c>
-      <c r="H265" t="inlineStr">
+      <c r="G265" t="inlineStr">
         <is>
           <t>hard</t>
         </is>
@@ -5945,10 +4893,7 @@
       <c r="C266">
         <v>3.9</v>
       </c>
-      <c r="F266">
-        <v>3.9</v>
-      </c>
-      <c r="H266" t="inlineStr">
+      <c r="G266" t="inlineStr">
         <is>
           <t>flat</t>
         </is>
@@ -5960,16 +4905,13 @@
           <t>rentier</t>
         </is>
       </c>
-      <c r="B267">
+      <c r="C267">
+        <v>3.9</v>
+      </c>
+      <c r="D267">
         <v>1.89</v>
       </c>
-      <c r="D267">
-        <v>3.9</v>
-      </c>
-      <c r="F267">
-        <v>3.9</v>
-      </c>
-      <c r="H267" t="inlineStr">
+      <c r="G267" t="inlineStr">
         <is>
           <t>reindeer</t>
         </is>
@@ -5981,13 +4923,10 @@
           <t>flusspferd</t>
         </is>
       </c>
-      <c r="D268">
+      <c r="C268">
         <v>3.9</v>
       </c>
-      <c r="F268">
-        <v>3.9</v>
-      </c>
-      <c r="H268" t="inlineStr">
+      <c r="G268" t="inlineStr">
         <is>
           <t>river horse</t>
         </is>
@@ -5999,16 +4938,13 @@
           <t>warzenschwein</t>
         </is>
       </c>
-      <c r="B269">
+      <c r="C269">
+        <v>3.9</v>
+      </c>
+      <c r="D269">
         <v>0.13</v>
       </c>
-      <c r="D269">
-        <v>3.9</v>
-      </c>
-      <c r="F269">
-        <v>3.9</v>
-      </c>
-      <c r="H269" t="inlineStr">
+      <c r="G269" t="inlineStr">
         <is>
           <t>warthog</t>
         </is>
@@ -6020,16 +4956,13 @@
           <t>nachtigall</t>
         </is>
       </c>
-      <c r="B270">
+      <c r="C270">
+        <v>3.9</v>
+      </c>
+      <c r="D270">
         <v>2.93</v>
       </c>
-      <c r="D270">
-        <v>3.9</v>
-      </c>
-      <c r="F270">
-        <v>3.9</v>
-      </c>
-      <c r="H270" t="inlineStr">
+      <c r="G270" t="inlineStr">
         <is>
           <t>nightingale</t>
         </is>
@@ -6041,25 +4974,19 @@
           <t>sellerie</t>
         </is>
       </c>
-      <c r="B271">
+      <c r="C271">
+        <v>3.9</v>
+      </c>
+      <c r="D271">
         <v>1.77</v>
       </c>
-      <c r="D271">
-        <v>3.9</v>
-      </c>
-      <c r="F271">
-        <v>3.9</v>
-      </c>
-      <c r="H271" t="inlineStr">
+      <c r="E271">
+        <v>11.67</v>
+      </c>
+      <c r="G271" t="inlineStr">
         <is>
           <t>celery</t>
         </is>
-      </c>
-      <c r="I271">
-        <v>11.67</v>
-      </c>
-      <c r="J271">
-        <v>5.78</v>
       </c>
     </row>
     <row r="272">
@@ -6068,16 +4995,13 @@
           <t>wassermelone</t>
         </is>
       </c>
-      <c r="B272">
+      <c r="C272">
+        <v>3.9</v>
+      </c>
+      <c r="D272">
         <v>0.11</v>
       </c>
-      <c r="D272">
-        <v>3.9</v>
-      </c>
-      <c r="F272">
-        <v>3.9</v>
-      </c>
-      <c r="H272" t="inlineStr">
+      <c r="G272" t="inlineStr">
         <is>
           <t>water melon</t>
         </is>
@@ -6089,19 +5013,13 @@
           <t>gurke</t>
         </is>
       </c>
-      <c r="B273">
-        <v>4.41</v>
-      </c>
       <c r="C273">
         <v>3.91</v>
       </c>
       <c r="D273">
-        <v>2.2</v>
-      </c>
-      <c r="F273">
-        <v>3.91</v>
-      </c>
-      <c r="H273" t="inlineStr">
+        <v>4.41</v>
+      </c>
+      <c r="G273" t="inlineStr">
         <is>
           <t>cucumber</t>
         </is>
@@ -6116,10 +5034,7 @@
       <c r="C274">
         <v>3.91</v>
       </c>
-      <c r="F274">
-        <v>3.91</v>
-      </c>
-      <c r="H274" t="inlineStr">
+      <c r="G274" t="inlineStr">
         <is>
           <t>help</t>
         </is>
@@ -6134,10 +5049,7 @@
       <c r="C275">
         <v>3.91</v>
       </c>
-      <c r="F275">
-        <v>3.91</v>
-      </c>
-      <c r="H275" t="inlineStr">
+      <c r="G275" t="inlineStr">
         <is>
           <t>school</t>
         </is>
@@ -6152,10 +5064,7 @@
       <c r="C276">
         <v>3.92</v>
       </c>
-      <c r="F276">
-        <v>3.92</v>
-      </c>
-      <c r="H276" t="inlineStr">
+      <c r="G276" t="inlineStr">
         <is>
           <t>ending</t>
         </is>
@@ -6170,10 +5079,7 @@
       <c r="C277">
         <v>3.92</v>
       </c>
-      <c r="F277">
-        <v>3.92</v>
-      </c>
-      <c r="H277" t="inlineStr">
+      <c r="G277" t="inlineStr">
         <is>
           <t>lake</t>
         </is>
@@ -6188,10 +5094,7 @@
       <c r="C278">
         <v>3.94</v>
       </c>
-      <c r="F278">
-        <v>3.94</v>
-      </c>
-      <c r="H278" t="inlineStr">
+      <c r="G278" t="inlineStr">
         <is>
           <t>moist</t>
         </is>
@@ -6206,10 +5109,7 @@
       <c r="C279">
         <v>3.94</v>
       </c>
-      <c r="F279">
-        <v>3.94</v>
-      </c>
-      <c r="H279" t="inlineStr">
+      <c r="G279" t="inlineStr">
         <is>
           <t>grating</t>
         </is>
@@ -6224,10 +5124,7 @@
       <c r="C280">
         <v>3.94</v>
       </c>
-      <c r="F280">
-        <v>3.94</v>
-      </c>
-      <c r="H280" t="inlineStr">
+      <c r="G280" t="inlineStr">
         <is>
           <t>knot</t>
         </is>
@@ -6242,10 +5139,7 @@
       <c r="C281">
         <v>3.94</v>
       </c>
-      <c r="F281">
-        <v>3.94</v>
-      </c>
-      <c r="H281" t="inlineStr">
+      <c r="G281" t="inlineStr">
         <is>
           <t>son</t>
         </is>
@@ -6260,10 +5154,7 @@
       <c r="C282">
         <v>3.94</v>
       </c>
-      <c r="F282">
-        <v>3.94</v>
-      </c>
-      <c r="H282" t="inlineStr">
+      <c r="G282" t="inlineStr">
         <is>
           <t>daughter</t>
         </is>
@@ -6278,10 +5169,7 @@
       <c r="C283">
         <v>3.95</v>
       </c>
-      <c r="F283">
-        <v>3.95</v>
-      </c>
-      <c r="H283" t="inlineStr">
+      <c r="G283" t="inlineStr">
         <is>
           <t>love</t>
         </is>
@@ -6296,10 +5184,7 @@
       <c r="C284">
         <v>3.95</v>
       </c>
-      <c r="F284">
-        <v>3.95</v>
-      </c>
-      <c r="H284" t="inlineStr">
+      <c r="G284" t="inlineStr">
         <is>
           <t>salt</t>
         </is>
@@ -6311,16 +5196,13 @@
           <t>schwarzbär</t>
         </is>
       </c>
-      <c r="B285">
+      <c r="C285">
+        <v>3.95</v>
+      </c>
+      <c r="D285">
         <v>0.02</v>
       </c>
-      <c r="D285">
-        <v>3.95</v>
-      </c>
-      <c r="F285">
-        <v>3.95</v>
-      </c>
-      <c r="H285" t="inlineStr">
+      <c r="G285" t="inlineStr">
         <is>
           <t>black bear</t>
         </is>
@@ -6332,16 +5214,13 @@
           <t>lachs</t>
         </is>
       </c>
-      <c r="B286">
+      <c r="C286">
+        <v>3.95</v>
+      </c>
+      <c r="D286">
         <v>2.25</v>
       </c>
-      <c r="D286">
-        <v>3.95</v>
-      </c>
-      <c r="F286">
-        <v>3.95</v>
-      </c>
-      <c r="H286" t="inlineStr">
+      <c r="G286" t="inlineStr">
         <is>
           <t>salmon</t>
         </is>
@@ -6353,16 +5232,13 @@
           <t>bussard</t>
         </is>
       </c>
-      <c r="B287">
+      <c r="C287">
+        <v>3.95</v>
+      </c>
+      <c r="D287">
         <v>0.57</v>
       </c>
-      <c r="D287">
-        <v>3.95</v>
-      </c>
-      <c r="F287">
-        <v>3.95</v>
-      </c>
-      <c r="H287" t="inlineStr">
+      <c r="G287" t="inlineStr">
         <is>
           <t>buzzard</t>
         </is>
@@ -6374,16 +5250,13 @@
           <t>preiselbeere</t>
         </is>
       </c>
-      <c r="B288">
+      <c r="C288">
+        <v>3.95</v>
+      </c>
+      <c r="D288">
         <v>0.39</v>
       </c>
-      <c r="D288">
-        <v>3.95</v>
-      </c>
-      <c r="F288">
-        <v>3.95</v>
-      </c>
-      <c r="H288" t="inlineStr">
+      <c r="G288" t="inlineStr">
         <is>
           <t>cranberry</t>
         </is>
@@ -6395,16 +5268,13 @@
           <t>tretboot</t>
         </is>
       </c>
-      <c r="B289">
+      <c r="C289">
+        <v>3.95</v>
+      </c>
+      <c r="D289">
         <v>0.01</v>
       </c>
-      <c r="D289">
-        <v>3.95</v>
-      </c>
-      <c r="F289">
-        <v>3.95</v>
-      </c>
-      <c r="H289" t="inlineStr">
+      <c r="G289" t="inlineStr">
         <is>
           <t>pedal boat</t>
         </is>
@@ -6416,16 +5286,13 @@
           <t>hochsprung</t>
         </is>
       </c>
-      <c r="B290">
+      <c r="C290">
+        <v>3.95</v>
+      </c>
+      <c r="D290">
         <v>0.5</v>
       </c>
-      <c r="D290">
-        <v>3.95</v>
-      </c>
-      <c r="F290">
-        <v>3.95</v>
-      </c>
-      <c r="H290" t="inlineStr">
+      <c r="G290" t="inlineStr">
         <is>
           <t>high jump</t>
         </is>
@@ -6437,16 +5304,13 @@
           <t>schießen</t>
         </is>
       </c>
-      <c r="B291">
+      <c r="C291">
+        <v>3.95</v>
+      </c>
+      <c r="D291">
         <v>3.86</v>
       </c>
-      <c r="D291">
-        <v>3.95</v>
-      </c>
-      <c r="F291">
-        <v>3.95</v>
-      </c>
-      <c r="H291" t="inlineStr">
+      <c r="G291" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
@@ -6458,16 +5322,13 @@
           <t>apotheker</t>
         </is>
       </c>
-      <c r="B292">
+      <c r="C292">
+        <v>3.95</v>
+      </c>
+      <c r="D292">
         <v>6.35</v>
       </c>
-      <c r="D292">
-        <v>3.95</v>
-      </c>
-      <c r="F292">
-        <v>3.95</v>
-      </c>
-      <c r="H292" t="inlineStr">
+      <c r="G292" t="inlineStr">
         <is>
           <t>pharmacist</t>
         </is>
@@ -6482,10 +5343,7 @@
       <c r="C293">
         <v>3.96</v>
       </c>
-      <c r="F293">
-        <v>3.96</v>
-      </c>
-      <c r="H293" t="inlineStr">
+      <c r="G293" t="inlineStr">
         <is>
           <t>remain</t>
         </is>
@@ -6500,10 +5358,7 @@
       <c r="C294">
         <v>3.96</v>
       </c>
-      <c r="F294">
-        <v>3.96</v>
-      </c>
-      <c r="H294" t="inlineStr">
+      <c r="G294" t="inlineStr">
         <is>
           <t>well-behaved</t>
         </is>
@@ -6518,10 +5373,7 @@
       <c r="C295">
         <v>3.96</v>
       </c>
-      <c r="F295">
-        <v>3.96</v>
-      </c>
-      <c r="H295" t="inlineStr">
+      <c r="G295" t="inlineStr">
         <is>
           <t>thunder</t>
         </is>
@@ -6536,10 +5388,7 @@
       <c r="C296">
         <v>3.96</v>
       </c>
-      <c r="F296">
-        <v>3.96</v>
-      </c>
-      <c r="H296" t="inlineStr">
+      <c r="G296" t="inlineStr">
         <is>
           <t>story</t>
         </is>
@@ -6554,19 +5403,13 @@
       <c r="C297">
         <v>3.96</v>
       </c>
-      <c r="F297">
-        <v>3.96</v>
-      </c>
-      <c r="H297" t="inlineStr">
+      <c r="E297">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="G297" t="inlineStr">
         <is>
           <t>nut</t>
         </is>
-      </c>
-      <c r="I297">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="J297">
-        <v>4.77</v>
       </c>
     </row>
     <row r="298">
@@ -6578,10 +5421,7 @@
       <c r="C298">
         <v>3.96</v>
       </c>
-      <c r="F298">
-        <v>3.96</v>
-      </c>
-      <c r="H298" t="inlineStr">
+      <c r="G298" t="inlineStr">
         <is>
           <t>pain</t>
         </is>
@@ -6596,10 +5436,7 @@
       <c r="C299">
         <v>3.96</v>
       </c>
-      <c r="F299">
-        <v>3.96</v>
-      </c>
-      <c r="H299" t="inlineStr">
+      <c r="G299" t="inlineStr">
         <is>
           <t>filth</t>
         </is>
@@ -6614,10 +5451,7 @@
       <c r="C300">
         <v>3.96</v>
       </c>
-      <c r="F300">
-        <v>3.96</v>
-      </c>
-      <c r="H300" t="inlineStr">
+      <c r="G300" t="inlineStr">
         <is>
           <t>number</t>
         </is>
@@ -6632,10 +5466,7 @@
       <c r="C301">
         <v>3.97</v>
       </c>
-      <c r="F301">
-        <v>3.97</v>
-      </c>
-      <c r="H301" t="inlineStr">
+      <c r="G301" t="inlineStr">
         <is>
           <t>push</t>
         </is>
@@ -6650,10 +5481,7 @@
       <c r="C302">
         <v>4</v>
       </c>
-      <c r="F302">
-        <v>4</v>
-      </c>
-      <c r="H302" t="inlineStr">
+      <c r="G302" t="inlineStr">
         <is>
           <t>visit</t>
         </is>
@@ -6668,19 +5496,13 @@
       <c r="C303">
         <v>4</v>
       </c>
-      <c r="F303">
-        <v>4</v>
-      </c>
-      <c r="H303" t="inlineStr">
+      <c r="E303">
+        <v>3.21</v>
+      </c>
+      <c r="G303" t="inlineStr">
         <is>
           <t>castle</t>
         </is>
-      </c>
-      <c r="I303">
-        <v>3.21</v>
-      </c>
-      <c r="J303">
-        <v>5.15</v>
       </c>
     </row>
     <row r="304">
@@ -6689,28 +5511,19 @@
           <t>bus</t>
         </is>
       </c>
-      <c r="B304">
-        <v>6.97</v>
-      </c>
       <c r="C304">
         <v>4</v>
       </c>
       <c r="D304">
-        <v>1.7</v>
-      </c>
-      <c r="F304">
-        <v>4</v>
-      </c>
-      <c r="H304" t="inlineStr">
+        <v>6.97</v>
+      </c>
+      <c r="E304">
+        <v>1.95</v>
+      </c>
+      <c r="G304" t="inlineStr">
         <is>
           <t>bus</t>
         </is>
-      </c>
-      <c r="I304">
-        <v>1.95</v>
-      </c>
-      <c r="J304">
-        <v>4.04</v>
       </c>
     </row>
     <row r="305">
@@ -6722,10 +5535,7 @@
       <c r="C305">
         <v>4</v>
       </c>
-      <c r="F305">
-        <v>4</v>
-      </c>
-      <c r="H305" t="inlineStr">
+      <c r="G305" t="inlineStr">
         <is>
           <t>dirt</t>
         </is>
@@ -6740,10 +5550,7 @@
       <c r="C306">
         <v>4</v>
       </c>
-      <c r="F306">
-        <v>4</v>
-      </c>
-      <c r="H306" t="inlineStr">
+      <c r="G306" t="inlineStr">
         <is>
           <t>angel</t>
         </is>
@@ -6758,10 +5565,7 @@
       <c r="C307">
         <v>4</v>
       </c>
-      <c r="F307">
-        <v>4</v>
-      </c>
-      <c r="H307" t="inlineStr">
+      <c r="G307" t="inlineStr">
         <is>
           <t>mistake</t>
         </is>
@@ -6776,10 +5580,7 @@
       <c r="C308">
         <v>4</v>
       </c>
-      <c r="F308">
-        <v>4</v>
-      </c>
-      <c r="H308" t="inlineStr">
+      <c r="G308" t="inlineStr">
         <is>
           <t>be cold</t>
         </is>
@@ -6794,10 +5595,7 @@
       <c r="C309">
         <v>4</v>
       </c>
-      <c r="F309">
-        <v>4</v>
-      </c>
-      <c r="H309" t="inlineStr">
+      <c r="G309" t="inlineStr">
         <is>
           <t>fodder</t>
         </is>
@@ -6812,19 +5610,13 @@
       <c r="C310">
         <v>4</v>
       </c>
-      <c r="F310">
-        <v>4</v>
-      </c>
-      <c r="H310" t="inlineStr">
+      <c r="E310">
+        <v>3.71</v>
+      </c>
+      <c r="G310" t="inlineStr">
         <is>
           <t>bell</t>
         </is>
-      </c>
-      <c r="I310">
-        <v>3.71</v>
-      </c>
-      <c r="J310">
-        <v>4.44</v>
       </c>
     </row>
     <row r="311">
@@ -6836,10 +5628,7 @@
       <c r="C311">
         <v>4</v>
       </c>
-      <c r="F311">
-        <v>4</v>
-      </c>
-      <c r="H311" t="inlineStr">
+      <c r="G311" t="inlineStr">
         <is>
           <t>autumn</t>
         </is>
@@ -6854,10 +5643,7 @@
       <c r="C312">
         <v>4</v>
       </c>
-      <c r="F312">
-        <v>4</v>
-      </c>
-      <c r="H312" t="inlineStr">
+      <c r="G312" t="inlineStr">
         <is>
           <t>stove</t>
         </is>
@@ -6872,19 +5658,13 @@
       <c r="C313">
         <v>4</v>
       </c>
-      <c r="F313">
-        <v>4</v>
-      </c>
-      <c r="H313" t="inlineStr">
+      <c r="E313">
+        <v>4.21</v>
+      </c>
+      <c r="G313" t="inlineStr">
         <is>
           <t>witch</t>
         </is>
-      </c>
-      <c r="I313">
-        <v>4.21</v>
-      </c>
-      <c r="J313">
-        <v>5.01</v>
       </c>
     </row>
     <row r="314">
@@ -6896,19 +5676,13 @@
       <c r="C314">
         <v>4</v>
       </c>
-      <c r="F314">
-        <v>4</v>
-      </c>
-      <c r="H314" t="inlineStr">
+      <c r="E314">
+        <v>1.95</v>
+      </c>
+      <c r="G314" t="inlineStr">
         <is>
           <t>hat</t>
         </is>
-      </c>
-      <c r="I314">
-        <v>1.95</v>
-      </c>
-      <c r="J314">
-        <v>3.45</v>
       </c>
     </row>
     <row r="315">
@@ -6920,10 +5694,7 @@
       <c r="C315">
         <v>4</v>
       </c>
-      <c r="F315">
-        <v>4</v>
-      </c>
-      <c r="H315" t="inlineStr">
+      <c r="G315" t="inlineStr">
         <is>
           <t>be able</t>
         </is>
@@ -6938,19 +5709,13 @@
       <c r="C316">
         <v>4</v>
       </c>
-      <c r="F316">
-        <v>4</v>
-      </c>
-      <c r="H316" t="inlineStr">
+      <c r="E316">
+        <v>4.71</v>
+      </c>
+      <c r="G316" t="inlineStr">
         <is>
           <t>crown</t>
         </is>
-      </c>
-      <c r="I316">
-        <v>4.71</v>
-      </c>
-      <c r="J316">
-        <v>6.08</v>
       </c>
     </row>
     <row r="317">
@@ -6962,10 +5727,7 @@
       <c r="C317">
         <v>4</v>
       </c>
-      <c r="F317">
-        <v>4</v>
-      </c>
-      <c r="H317" t="inlineStr">
+      <c r="G317" t="inlineStr">
         <is>
           <t>curl</t>
         </is>
@@ -6980,10 +5742,7 @@
       <c r="C318">
         <v>4</v>
       </c>
-      <c r="F318">
-        <v>4</v>
-      </c>
-      <c r="H318" t="inlineStr">
+      <c r="G318" t="inlineStr">
         <is>
           <t>at midday</t>
         </is>
@@ -6995,19 +5754,13 @@
           <t>musiker</t>
         </is>
       </c>
-      <c r="B319">
-        <v>18.18</v>
-      </c>
       <c r="C319">
         <v>4</v>
       </c>
       <c r="D319">
-        <v>3.25</v>
-      </c>
-      <c r="F319">
-        <v>4</v>
-      </c>
-      <c r="H319" t="inlineStr">
+        <v>18.18</v>
+      </c>
+      <c r="G319" t="inlineStr">
         <is>
           <t>musician</t>
         </is>
@@ -7022,10 +5775,7 @@
       <c r="C320">
         <v>4</v>
       </c>
-      <c r="F320">
-        <v>4</v>
-      </c>
-      <c r="H320" t="inlineStr">
+      <c r="G320" t="inlineStr">
         <is>
           <t>often</t>
         </is>
@@ -7037,28 +5787,19 @@
           <t>pinguin</t>
         </is>
       </c>
-      <c r="B321">
-        <v>0.68</v>
-      </c>
       <c r="C321">
         <v>4</v>
       </c>
       <c r="D321">
-        <v>3.1</v>
-      </c>
-      <c r="F321">
-        <v>4</v>
-      </c>
-      <c r="H321" t="inlineStr">
+        <v>0.68</v>
+      </c>
+      <c r="E321">
+        <v>3.21</v>
+      </c>
+      <c r="G321" t="inlineStr">
         <is>
           <t>penguin</t>
         </is>
-      </c>
-      <c r="I321">
-        <v>3.21</v>
-      </c>
-      <c r="J321">
-        <v>5.76</v>
       </c>
     </row>
     <row r="322">
@@ -7070,10 +5811,7 @@
       <c r="C322">
         <v>4</v>
       </c>
-      <c r="F322">
-        <v>4</v>
-      </c>
-      <c r="H322" t="inlineStr">
+      <c r="G322" t="inlineStr">
         <is>
           <t>radio</t>
         </is>
@@ -7088,10 +5826,7 @@
       <c r="C323">
         <v>4</v>
       </c>
-      <c r="F323">
-        <v>4</v>
-      </c>
-      <c r="H323" t="inlineStr">
+      <c r="G323" t="inlineStr">
         <is>
           <t>sunny</t>
         </is>
@@ -7103,28 +5838,22 @@
           <t>umarmen</t>
         </is>
       </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C324">
         <v>4</v>
       </c>
-      <c r="E324">
-        <v>2.9</v>
-      </c>
-      <c r="F324">
-        <v>4</v>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H324" t="inlineStr">
-        <is>
           <t>hug</t>
-        </is>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -7137,10 +5866,7 @@
       <c r="C325">
         <v>4</v>
       </c>
-      <c r="F325">
-        <v>4</v>
-      </c>
-      <c r="H325" t="inlineStr">
+      <c r="G325" t="inlineStr">
         <is>
           <t>lose</t>
         </is>
@@ -7155,10 +5881,7 @@
       <c r="C326">
         <v>4</v>
       </c>
-      <c r="F326">
-        <v>4</v>
-      </c>
-      <c r="H326" t="inlineStr">
+      <c r="G326" t="inlineStr">
         <is>
           <t>circus</t>
         </is>
@@ -7170,16 +5893,13 @@
           <t>antilope</t>
         </is>
       </c>
-      <c r="B327">
+      <c r="C327">
+        <v>4</v>
+      </c>
+      <c r="D327">
         <v>1.12</v>
       </c>
-      <c r="D327">
-        <v>4</v>
-      </c>
-      <c r="F327">
-        <v>4</v>
-      </c>
-      <c r="H327" t="inlineStr">
+      <c r="G327" t="inlineStr">
         <is>
           <t>antelope</t>
         </is>
@@ -7191,16 +5911,13 @@
           <t>holunderbeere</t>
         </is>
       </c>
-      <c r="B328">
+      <c r="C328">
+        <v>4</v>
+      </c>
+      <c r="D328">
         <v>0.1</v>
       </c>
-      <c r="D328">
-        <v>4</v>
-      </c>
-      <c r="F328">
-        <v>4</v>
-      </c>
-      <c r="H328" t="inlineStr">
+      <c r="G328" t="inlineStr">
         <is>
           <t>elderberry</t>
         </is>
@@ -7212,16 +5929,13 @@
           <t>kommode</t>
         </is>
       </c>
-      <c r="B329">
+      <c r="C329">
+        <v>4</v>
+      </c>
+      <c r="D329">
         <v>3.28</v>
       </c>
-      <c r="D329">
-        <v>4</v>
-      </c>
-      <c r="F329">
-        <v>4</v>
-      </c>
-      <c r="H329" t="inlineStr">
+      <c r="G329" t="inlineStr">
         <is>
           <t>chest of drawers</t>
         </is>
@@ -7233,16 +5947,13 @@
           <t>wasserball</t>
         </is>
       </c>
-      <c r="B330">
+      <c r="C330">
+        <v>4</v>
+      </c>
+      <c r="D330">
         <v>0.23</v>
       </c>
-      <c r="D330">
-        <v>4</v>
-      </c>
-      <c r="F330">
-        <v>4</v>
-      </c>
-      <c r="H330" t="inlineStr">
+      <c r="G330" t="inlineStr">
         <is>
           <t>water polo</t>
         </is>
@@ -7254,16 +5965,13 @@
           <t>schlosser</t>
         </is>
       </c>
-      <c r="B331">
+      <c r="C331">
+        <v>4</v>
+      </c>
+      <c r="D331">
         <v>3.31</v>
       </c>
-      <c r="D331">
-        <v>4</v>
-      </c>
-      <c r="F331">
-        <v>4</v>
-      </c>
-      <c r="H331" t="inlineStr">
+      <c r="G331" t="inlineStr">
         <is>
           <t>locksmith</t>
         </is>
@@ -7278,10 +5986,7 @@
       <c r="C332">
         <v>4.02</v>
       </c>
-      <c r="F332">
-        <v>4.02</v>
-      </c>
-      <c r="H332" t="inlineStr">
+      <c r="G332" t="inlineStr">
         <is>
           <t>cheeky</t>
         </is>
@@ -7296,10 +6001,7 @@
       <c r="C333">
         <v>4.02</v>
       </c>
-      <c r="F333">
-        <v>4.02</v>
-      </c>
-      <c r="H333" t="inlineStr">
+      <c r="G333" t="inlineStr">
         <is>
           <t>paint brush</t>
         </is>
@@ -7314,10 +6016,7 @@
       <c r="C334">
         <v>4.04</v>
       </c>
-      <c r="F334">
-        <v>4.04</v>
-      </c>
-      <c r="H334" t="inlineStr">
+      <c r="G334" t="inlineStr">
         <is>
           <t>alone</t>
         </is>
@@ -7332,10 +6031,7 @@
       <c r="C335">
         <v>4.04</v>
       </c>
-      <c r="F335">
-        <v>4.04</v>
-      </c>
-      <c r="H335" t="inlineStr">
+      <c r="G335" t="inlineStr">
         <is>
           <t>mealtime</t>
         </is>
@@ -7350,10 +6046,7 @@
       <c r="C336">
         <v>4.04</v>
       </c>
-      <c r="F336">
-        <v>4.04</v>
-      </c>
-      <c r="H336" t="inlineStr">
+      <c r="G336" t="inlineStr">
         <is>
           <t>scream</t>
         </is>
@@ -7368,10 +6061,7 @@
       <c r="C337">
         <v>4.04</v>
       </c>
-      <c r="F337">
-        <v>4.04</v>
-      </c>
-      <c r="H337" t="inlineStr">
+      <c r="G337" t="inlineStr">
         <is>
           <t>side</t>
         </is>
@@ -7386,10 +6076,7 @@
       <c r="C338">
         <v>4.05</v>
       </c>
-      <c r="F338">
-        <v>4.05</v>
-      </c>
-      <c r="H338" t="inlineStr">
+      <c r="G338" t="inlineStr">
         <is>
           <t>better</t>
         </is>
@@ -7404,10 +6091,7 @@
       <c r="C339">
         <v>4.05</v>
       </c>
-      <c r="F339">
-        <v>4.05</v>
-      </c>
-      <c r="H339" t="inlineStr">
+      <c r="G339" t="inlineStr">
         <is>
           <t>garage</t>
         </is>
@@ -7422,10 +6106,7 @@
       <c r="C340">
         <v>4.05</v>
       </c>
-      <c r="F340">
-        <v>4.05</v>
-      </c>
-      <c r="H340" t="inlineStr">
+      <c r="G340" t="inlineStr">
         <is>
           <t>illness</t>
         </is>
@@ -7440,10 +6121,7 @@
       <c r="C341">
         <v>4.05</v>
       </c>
-      <c r="F341">
-        <v>4.05</v>
-      </c>
-      <c r="H341" t="inlineStr">
+      <c r="G341" t="inlineStr">
         <is>
           <t>lip</t>
         </is>
@@ -7458,10 +6136,7 @@
       <c r="C342">
         <v>4.05</v>
       </c>
-      <c r="F342">
-        <v>4.05</v>
-      </c>
-      <c r="H342" t="inlineStr">
+      <c r="G342" t="inlineStr">
         <is>
           <t>october</t>
         </is>
@@ -7476,10 +6151,7 @@
       <c r="C343">
         <v>4.05</v>
       </c>
-      <c r="F343">
-        <v>4.05</v>
-      </c>
-      <c r="H343" t="inlineStr">
+      <c r="G343" t="inlineStr">
         <is>
           <t>knight</t>
         </is>
@@ -7494,10 +6166,7 @@
       <c r="C344">
         <v>4.05</v>
       </c>
-      <c r="F344">
-        <v>4.05</v>
-      </c>
-      <c r="H344" t="inlineStr">
+      <c r="G344" t="inlineStr">
         <is>
           <t>tear</t>
         </is>
@@ -7509,16 +6178,13 @@
           <t>büffel</t>
         </is>
       </c>
-      <c r="B345">
+      <c r="C345">
+        <v>4.05</v>
+      </c>
+      <c r="D345">
         <v>1.81</v>
       </c>
-      <c r="D345">
-        <v>4.05</v>
-      </c>
-      <c r="F345">
-        <v>4.05</v>
-      </c>
-      <c r="H345" t="inlineStr">
+      <c r="G345" t="inlineStr">
         <is>
           <t>buffalo</t>
         </is>
